--- a/AzureDWHFramework/AzureDWHFrameworkDataInput/DataInput.xlsx
+++ b/AzureDWHFramework/AzureDWHFrameworkDataInput/DataInput.xlsx
@@ -5,25 +5,27 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\source\repos\AzureDWHframework\AzureDWHFramework\AzureDWHFrameworkDataInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FB7266-C848-4C9A-AD5E-B7AD241A3889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F810D0F8-3695-4FBE-ABD5-6BCF1F1E1047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="StageTable" sheetId="1" r:id="rId1"/>
-    <sheet name="StageTableColumn" sheetId="2" r:id="rId2"/>
-    <sheet name="DimTable" sheetId="7" r:id="rId3"/>
-    <sheet name="DimTableColumn" sheetId="8" r:id="rId4"/>
-    <sheet name="FactTable" sheetId="9" r:id="rId5"/>
-    <sheet name="FactTableColumn" sheetId="10" r:id="rId6"/>
+    <sheet name="Business Area" sheetId="12" r:id="rId1"/>
+    <sheet name="StageTable" sheetId="1" r:id="rId2"/>
+    <sheet name="StageTableColumn" sheetId="2" r:id="rId3"/>
+    <sheet name="StageMapping" sheetId="11" r:id="rId4"/>
+    <sheet name="DimTable" sheetId="7" r:id="rId5"/>
+    <sheet name="DimTableColumn" sheetId="8" r:id="rId6"/>
+    <sheet name="FactTable" sheetId="9" r:id="rId7"/>
+    <sheet name="FactTableColumn" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">DimTableColumn!$A$1:$I$79</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">StageTable!$A$1:$B$63</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">StageTableColumn!$A$1:$E$4122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">DimTableColumn!$A$1:$I$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">StageTable!$A$1:$C$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">StageTableColumn!$A$1:$F$31</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -53,9 +55,9 @@
   <commentList>
     <comment ref="C1" authorId="0" shapeId="0" xr:uid="{A97A3F6D-258A-47C2-A556-02F0EA8396ED}">
       <text>
-        <t xml:space="preserve">[Komentář ve vlákně]
-Vaše verze aplikace Excel vám umožňuje číst tento komentář ve vlákně, ale jakékoli jeho úpravy se odeberou, pokud se soubor otevře v novější verzi aplikace Excel. Další informace: https://go.microsoft.com/fwlink/?linkid=870924
-Komentář:
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     SCD1 or SCD2
 </t>
       </text>
@@ -72,9 +74,9 @@
   <commentList>
     <comment ref="C1" authorId="0" shapeId="0" xr:uid="{F6EABC82-789E-47F4-973F-9396278280B8}">
       <text>
-        <t>[Komentář ve vlákně]
-Vaše verze aplikace Excel vám umožňuje číst tento komentář ve vlákně, ale jakékoli jeho úpravy se odeberou, pokud se soubor otevře v novější verzi aplikace Excel. Další informace: https://go.microsoft.com/fwlink/?linkid=870924
-Komentář:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Full or Increment</t>
       </text>
     </comment>
@@ -91,17 +93,17 @@
   <commentList>
     <comment ref="G1" authorId="0" shapeId="0" xr:uid="{B7616948-429F-462A-BE7D-FEF744E778FA}">
       <text>
-        <t>[Komentář ve vlákně]
-Vaše verze aplikace Excel vám umožňuje číst tento komentář ve vlákně, ale jakékoli jeho úpravy se odeberou, pokud se soubor otevře v novější verzi aplikace Excel. Další informace: https://go.microsoft.com/fwlink/?linkid=870924
-Komentář:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Leave blank when column is not referencing to dimension</t>
       </text>
     </comment>
     <comment ref="H1" authorId="1" shapeId="0" xr:uid="{322A949E-A72E-425E-8252-7370C9F16B86}">
       <text>
-        <t>[Komentář ve vlákně]
-Vaše verze aplikace Excel vám umožňuje číst tento komentář ve vlákně, ale jakékoli jeho úpravy se odeberou, pokud se soubor otevře v novější verzi aplikace Excel. Další informace: https://go.microsoft.com/fwlink/?linkid=870924
-Komentář:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Leave blank when column is not referencing to dimension</t>
       </text>
     </comment>
@@ -110,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="147">
   <si>
     <t>SchemaName</t>
   </si>
@@ -124,9 +126,6 @@
     <t>stage_nav</t>
   </si>
   <si>
-    <t>CarInsuranceHeader</t>
-  </si>
-  <si>
     <t>CarMake</t>
   </si>
   <si>
@@ -145,9 +144,6 @@
     <t>Nullable</t>
   </si>
   <si>
-    <t>timestamp</t>
-  </si>
-  <si>
     <t>No_</t>
   </si>
   <si>
@@ -436,7 +432,127 @@
     <t>Cost</t>
   </si>
   <si>
-    <t>test</t>
+    <t>stage_csv</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>stage_onpremisedb</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>SalesPerson</t>
+  </si>
+  <si>
+    <t>SalesOrderHeader</t>
+  </si>
+  <si>
+    <t>PurchaseOrderHeader</t>
+  </si>
+  <si>
+    <t>AddressLine1</t>
+  </si>
+  <si>
+    <t>AddressLine2</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>AddressID</t>
+  </si>
+  <si>
+    <t>BusinessEntityID</t>
+  </si>
+  <si>
+    <t>LoginID</t>
+  </si>
+  <si>
+    <t>nvarchar(256)</t>
+  </si>
+  <si>
+    <t>JobTitle</t>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>MaritalStatus</t>
+  </si>
+  <si>
+    <t>nchar(1)</t>
+  </si>
+  <si>
+    <t>SalesQuota</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>CommissionPct</t>
+  </si>
+  <si>
+    <t>smallmoney</t>
+  </si>
+  <si>
+    <t>SalesOrderID</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>DueDate</t>
+  </si>
+  <si>
+    <t>ShipDate</t>
+  </si>
+  <si>
+    <t>SalesPersonID</t>
+  </si>
+  <si>
+    <t>BillToAddressID</t>
+  </si>
+  <si>
+    <t>ShipToAddressID</t>
+  </si>
+  <si>
+    <t>SubTotal</t>
+  </si>
+  <si>
+    <t>TaxAmt</t>
+  </si>
+  <si>
+    <t>Freight</t>
+  </si>
+  <si>
+    <t>PurchaseOrderID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Číselník adres</t>
+  </si>
+  <si>
+    <t>Číselník zaměstnanců</t>
+  </si>
+  <si>
+    <t>Číselník prodejců</t>
+  </si>
+  <si>
+    <t>Informace o prodejích</t>
+  </si>
+  <si>
+    <t>Informace o nákupech</t>
   </si>
 </sst>
 </file>
@@ -531,7 +647,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -842,81 +958,167 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5874FF1C-0D7F-4AF9-8572-6A1FCFF9ACA7}">
   <sheetPr>
-    <tabColor rgb="FF4472C4"/>
+    <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:H3798"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="85" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.StageTable(SchemaName, TableName) VALUES ('",A2,"','",B2,"')")</f>
-        <v>INSERT INTO conf.StageTable(SchemaName, TableName) VALUES ('stage_nav','CarInsuranceHeader')</v>
-      </c>
-    </row>
-    <row r="3798" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H3798" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO 'StageTable'!B68:D68(StageTableID, ColumnName,SourceColumnName, DataType, Nullable) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'",B3798,"' AND SchemaName=N'",A3798,"')",",N'", C3798,"',N'", D3798,"',N'",E3798,"',",F3798,")")</f>
-        <v>INSERT INTO 'StageTable'!B68:D68(StageTableID, ColumnName,SourceColumnName, DataType, Nullable) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'' AND SchemaName=N''),N'',N'',N'',)</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:B63" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A62E405-D7A5-4E90-BFDB-0C0D8A35C057}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF4472C4"/>
   </sheetPr>
-  <dimension ref="A1:G4477"/>
+  <dimension ref="A1:I3797"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="134.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.StageTable(SchemaName, TableName, Description) VALUES ('",A2,"','",B2,"',N'",C2,"')")</f>
+        <v>INSERT INTO conf.StageTable(SchemaName, TableName, Description) VALUES ('stage_csv','Address',N'Číselník adres')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E6" si="0" xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.StageTable(SchemaName, TableName, Description) VALUES ('",A3,"','",B3,"',N'",C3,"')")</f>
+        <v>INSERT INTO conf.StageTable(SchemaName, TableName, Description) VALUES ('stage_onpremisedb','Employee',N'Číselník zaměstnanců')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.StageTable(SchemaName, TableName, Description) VALUES ('stage_onpremisedb','SalesPerson',N'Číselník prodejců')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.StageTable(SchemaName, TableName, Description) VALUES ('stage_onpremisedb','SalesOrderHeader',N'Informace o prodejích')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.StageTable(SchemaName, TableName, Description) VALUES ('stage_onpremisedb','PurchaseOrderHeader',N'Informace o nákupech')</v>
+      </c>
+    </row>
+    <row r="3797" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I3797" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO 'StageTable'!B68:D68(StageTableID, ColumnName,SourceColumnName, DataType, Nullable) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'",B3797,"' AND SchemaName=N'",A3797,"')",",N'", D3797,"',N'", E3797,"',N'",F3797,"',",G3797,")")</f>
+        <v>INSERT INTO 'StageTable'!B68:D68(StageTableID, ColumnName,SourceColumnName, DataType, Nullable) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'' AND SchemaName=N''),N'',N'',N'',)</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C6" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A62E405-D7A5-4E90-BFDB-0C0D8A35C057}">
+  <sheetPr filterMode="1">
+    <tabColor rgb="FF4472C4"/>
+  </sheetPr>
+  <dimension ref="A1:H4472"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.7109375" customWidth="1"/>
     <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
+    <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -924,47 +1126,674 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="F1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'",B2,"' AND SchemaName=N'",A2,"')",",N'", C2, "',N'",D2,"',",E2,",N'", F2, "')")</f>
+        <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'Address' AND SchemaName=N'stage_csv'),N'AddressID',N'nvarchar(255)',1,N'')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H31" si="0">_xlfn.CONCAT("INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'",B3,"' AND SchemaName=N'",A3,"')",",N'", C3, "',N'",D3,"',",E3,",N'", F3, "')")</f>
+        <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'Address' AND SchemaName=N'stage_csv'),N'AddressLine1',N'nvarchar(255)',1,N'')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'Address' AND SchemaName=N'stage_csv'),N'AddressLine2',N'nvarchar(255)',1,N'')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'Address' AND SchemaName=N'stage_csv'),N'City',N'nvarchar(255)',1,N'')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
         <v>0</v>
       </c>
-      <c r="G2" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'",B2,"' AND SchemaName=N'",A2,"')",",N'", C2, "',N'",D2,"',",E2,")")</f>
-        <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'CarInsuranceHeader' AND SchemaName=N'stage_nav'),N'test',N'timestamp',0)</v>
-      </c>
-    </row>
-    <row r="3667" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C3667" s="4"/>
-    </row>
-    <row r="3668" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C3668" s="4"/>
-    </row>
-    <row r="3758" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C3758" s="3"/>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'Employee' AND SchemaName=N'stage_onpremisedb'),N'BusinessEntityID',N'int',0,N'')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'Employee' AND SchemaName=N'stage_onpremisedb'),N'LoginID',N'nvarchar(256)',0,N'')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'Employee' AND SchemaName=N'stage_onpremisedb'),N'JobTitle',N'nvarchar(50)',0,N'')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'Employee' AND SchemaName=N'stage_onpremisedb'),N'Gender',N'nchar(1)',0,N'')</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'Employee' AND SchemaName=N'stage_onpremisedb'),N'MaritalStatus',N'nchar(1)',0,N'')</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'SalesPerson' AND SchemaName=N'stage_onpremisedb'),N'BusinessEntityID',N'int',0,N'')</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'SalesPerson' AND SchemaName=N'stage_onpremisedb'),N'SalesQuota',N'money',0,N'')</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'SalesPerson' AND SchemaName=N'stage_onpremisedb'),N'CommissionPct',N'smallmoney',0,N'')</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'SalesPerson' AND SchemaName=N'stage_onpremisedb'),N'Bonus',N'money',0,N'')</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'SalesOrderHeader' AND SchemaName=N'stage_onpremisedb'),N'SalesOrderID',N'int',0,N'')</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'SalesOrderHeader' AND SchemaName=N'stage_onpremisedb'),N'OrderDate',N'datetime',0,N'')</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'SalesOrderHeader' AND SchemaName=N'stage_onpremisedb'),N'DueDate',N'datetime',0,N'')</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'SalesOrderHeader' AND SchemaName=N'stage_onpremisedb'),N'ShipDate',N'datetime',0,N'')</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'SalesOrderHeader' AND SchemaName=N'stage_onpremisedb'),N'SalesPersonID',N'int',0,N'')</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'SalesOrderHeader' AND SchemaName=N'stage_onpremisedb'),N'BillToAddressID',N'int',0,N'')</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'SalesOrderHeader' AND SchemaName=N'stage_onpremisedb'),N'ShipToAddressID',N'int',0,N'')</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'SalesOrderHeader' AND SchemaName=N'stage_onpremisedb'),N'SubTotal',N'money',0,N'')</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'SalesOrderHeader' AND SchemaName=N'stage_onpremisedb'),N'TaxAmt',N'money',0,N'')</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'SalesOrderHeader' AND SchemaName=N'stage_onpremisedb'),N'Freight',N'money',0,N'')</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'PurchaseOrderHeader' AND SchemaName=N'stage_onpremisedb'),N'PurchaseOrderID',N'int',0,N'')</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'PurchaseOrderHeader' AND SchemaName=N'stage_onpremisedb'),N'OrderDate',N'datetime',0,N'')</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'PurchaseOrderHeader' AND SchemaName=N'stage_onpremisedb'),N'ShipDate',N'datetime',0,N'')</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'PurchaseOrderHeader' AND SchemaName=N'stage_onpremisedb'),N'EmployeeID',N'int',0,N'')</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'PurchaseOrderHeader' AND SchemaName=N'stage_onpremisedb'),N'SubTotal',N'money',0,N'')</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'PurchaseOrderHeader' AND SchemaName=N'stage_onpremisedb'),N'TaxAmt',N'money',0,N'')</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'PurchaseOrderHeader' AND SchemaName=N'stage_onpremisedb'),N'Freight',N'money',0,N'')</v>
+      </c>
+    </row>
+    <row r="3662" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3662" s="4"/>
+    </row>
+    <row r="3663" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3663" s="4"/>
+    </row>
+    <row r="3753" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3753" s="3"/>
+    </row>
+    <row r="3799" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3799" s="1"/>
+    </row>
+    <row r="3800" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3800" s="1"/>
+    </row>
+    <row r="3801" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3801" s="1"/>
+    </row>
+    <row r="3802" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3802" s="1"/>
+    </row>
+    <row r="3803" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3803" s="1"/>
     </row>
     <row r="3804" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3804" s="1"/>
@@ -1910,9 +2739,11 @@
     </row>
     <row r="4118" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C4118" s="1"/>
+      <c r="D4118" s="5"/>
     </row>
     <row r="4119" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C4119" s="1"/>
+      <c r="D4119" s="5"/>
     </row>
     <row r="4120" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C4120" s="1"/>
@@ -1925,11 +2756,9 @@
     </row>
     <row r="4123" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C4123" s="1"/>
-      <c r="D4123" s="5"/>
     </row>
     <row r="4124" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C4124" s="1"/>
-      <c r="D4124" s="5"/>
     </row>
     <row r="4125" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C4125" s="1"/>
@@ -2177,9 +3006,6 @@
     <row r="4206" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4206" s="1"/>
     </row>
-    <row r="4207" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C4207" s="1"/>
-    </row>
     <row r="4208" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4208" s="1"/>
     </row>
@@ -2192,6 +3018,9 @@
     <row r="4211" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4211" s="1"/>
     </row>
+    <row r="4212" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C4212" s="1"/>
+    </row>
     <row r="4213" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4213" s="1"/>
     </row>
@@ -2414,9 +3243,6 @@
     <row r="4286" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4286" s="1"/>
     </row>
-    <row r="4287" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C4287" s="1"/>
-    </row>
     <row r="4288" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4288" s="1"/>
     </row>
@@ -2429,6 +3255,9 @@
     <row r="4291" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4291" s="1"/>
     </row>
+    <row r="4292" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C4292" s="1"/>
+    </row>
     <row r="4293" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4293" s="1"/>
     </row>
@@ -2933,9 +3762,6 @@
     <row r="4460" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4460" s="1"/>
     </row>
-    <row r="4461" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C4461" s="1"/>
-    </row>
     <row r="4462" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4462" s="1"/>
     </row>
@@ -2948,6 +3774,9 @@
     <row r="4465" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4465" s="1"/>
     </row>
+    <row r="4466" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C4466" s="1"/>
+    </row>
     <row r="4467" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4467" s="1"/>
     </row>
@@ -2966,30 +3795,62 @@
     <row r="4472" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4472" s="1"/>
     </row>
-    <row r="4473" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C4473" s="1"/>
-    </row>
-    <row r="4474" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C4474" s="1"/>
-    </row>
-    <row r="4475" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C4475" s="1"/>
-    </row>
-    <row r="4476" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C4476" s="1"/>
-    </row>
-    <row r="4477" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C4477" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E4122" xr:uid="{8A62E405-D7A5-4E90-BFDB-0C0D8A35C057}"/>
+  <autoFilter ref="A1:F31" xr:uid="{8A62E405-D7A5-4E90-BFDB-0C0D8A35C057}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="PurchaseOrderHeader"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3814CC27-2922-4E59-A0B2-A859ABEBB4B3}">
+  <sheetPr>
+    <tabColor theme="8"/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8409EB-2D2C-432D-81BA-E57B4146C664}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -3016,7 +3877,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -3024,13 +3885,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E2" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.DimensionTable(SchemaName, TableName, Loadtype) VALUES (N'",A2,"',N'",B2,"',N'",C2,"')")</f>
@@ -3044,7 +3905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E7B4BB0-CEF4-49D3-8D25-23DCC1D7C5CD}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -3067,31 +3928,31 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>38</v>
       </c>
       <c r="K1" t="s">
         <v>2</v>
@@ -3099,25 +3960,25 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -3158,7 +4019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51644266-7B81-49A9-87EE-3E210C91CDFC}">
   <sheetPr>
     <tabColor rgb="FF70AD47"/>
@@ -3185,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -3193,13 +4054,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E2" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.FactTable(SchemaName, TableName, Loadtype) VALUES (N'",A2,"',N'",B2,"',N'",C2,"')")</f>
@@ -3212,7 +4073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA91119-AB45-4CBF-AA80-7952E2D33F3A}">
   <sheetPr>
     <tabColor rgb="FF70AD47"/>
@@ -3236,37 +4097,37 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" t="s">
-        <v>49</v>
-      </c>
       <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>38</v>
       </c>
       <c r="M1" t="s">
         <v>2</v>
@@ -3274,31 +4135,31 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -3307,995 +4168,995 @@
         <v>1</v>
       </c>
       <c r="M2" t="str">
-        <f t="shared" ref="M2:M50" si="0">IF(ISBLANK(G2),_xlfn.CONCAT("INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'",B2,"' AND SchemaName = N'",A2,"')",",N'",C2, "',N'",I2, "',",J2,",",K2,", (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'",F2,"' AND stgTable.SchemaName = N'",D2,"' AND stgTable.TableName = N'",E2,"'),","NULL)"),_xlfn.CONCAT("INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'",B2,"' AND SchemaName = N'",A2,"')",",N'",C2, "',N'",I2, "',",J2,",",K2,", (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'",F2,"' AND stgTable.SchemaName = N'",D2,"' AND stgTable.TableName = N'",E2,"'),","(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'",H2,"' AND SchemaName = N'",G2,"'))"))</f>
+        <f t="shared" ref="M2" si="0">IF(ISBLANK(G2),_xlfn.CONCAT("INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'",B2,"' AND SchemaName = N'",A2,"')",",N'",C2, "',N'",I2, "',",J2,",",K2,", (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'",F2,"' AND stgTable.SchemaName = N'",D2,"' AND stgTable.TableName = N'",E2,"'),","NULL)"),_xlfn.CONCAT("INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'",B2,"' AND SchemaName = N'",A2,"')",",N'",C2, "',N'",I2, "',",J2,",",K2,", (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'",F2,"' AND stgTable.SchemaName = N'",D2,"' AND stgTable.TableName = N'",E2,"'),","(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'",H2,"' AND SchemaName = N'",G2,"'))"))</f>
         <v>INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'CarDeal' AND SchemaName = N'dwh'),N'CarMakeID',N'int',0,1, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'Code' AND stgTable.SchemaName = N'stage_nav' AND stgTable.TableName = N'CarMake'),(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'CarMake' AND SchemaName = N'dwh'))</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C51" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B59" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C59" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B60" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C60" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B61" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B62" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B63" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B64" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C64" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B65" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C65" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B66" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C66" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B67" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C67" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B68" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C68" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B69" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C69" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B70" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C70" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B71" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B72" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B73" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C73" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B74" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C74" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B75" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C75" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B76" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C76" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B77" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B78" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C78" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B79" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C79" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B80" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C80" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B81" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C81" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B82" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C82" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B83" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C83" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B84" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C84" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B85" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C85" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B86" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C86" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B87" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C87" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B88" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C88" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B89" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C89" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B90" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C90" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B91" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B93" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B95" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -4306,12 +5167,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4480,15 +5338,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECF01738-4FB6-4420-ACD5-05F4ADA23550}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C35E53F-2B8C-4469-8C9B-1A3659EAE88B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4513,10 +5375,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C35E53F-2B8C-4469-8C9B-1A3659EAE88B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECF01738-4FB6-4420-ACD5-05F4ADA23550}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/AzureDWHFramework/AzureDWHFrameworkDataInput/DataInput.xlsx
+++ b/AzureDWHFramework/AzureDWHFrameworkDataInput/DataInput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\source\repos\AzureDWHframework\AzureDWHFramework\AzureDWHFrameworkDataInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F810D0F8-3695-4FBE-ABD5-6BCF1F1E1047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759376CF-AA5C-496A-9C2F-81923077E581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Business Area" sheetId="12" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="DimTableColumn" sheetId="8" r:id="rId6"/>
     <sheet name="FactTable" sheetId="9" r:id="rId7"/>
     <sheet name="FactTableColumn" sheetId="10" r:id="rId8"/>
+    <sheet name="HiddenSheet" sheetId="13" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">DimTableColumn!$A$1:$I$79</definedName>
@@ -112,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="171">
   <si>
     <t>SchemaName</t>
   </si>
@@ -435,6 +436,9 @@
     <t>stage_csv</t>
   </si>
   <si>
+    <t>Person</t>
+  </si>
+  <si>
     <t>Address</t>
   </si>
   <si>
@@ -553,6 +557,75 @@
   </si>
   <si>
     <t>Informace o nákupech</t>
+  </si>
+  <si>
+    <t>BusinessAreaName</t>
+  </si>
+  <si>
+    <t>HumanResources</t>
+  </si>
+  <si>
+    <t>Purchasing</t>
+  </si>
+  <si>
+    <t>Lidské zdroje</t>
+  </si>
+  <si>
+    <t>Osoby</t>
+  </si>
+  <si>
+    <t>Prodej</t>
+  </si>
+  <si>
+    <t>Nákup</t>
+  </si>
+  <si>
+    <t>BusinessAreas</t>
+  </si>
+  <si>
+    <t>HumanResources, Person</t>
+  </si>
+  <si>
+    <t>Purchase</t>
+  </si>
+  <si>
+    <t>SourceDataset</t>
+  </si>
+  <si>
+    <t>SourceSchema</t>
+  </si>
+  <si>
+    <t>SourceTable</t>
+  </si>
+  <si>
+    <t>DeleteCondition</t>
+  </si>
+  <si>
+    <t>IncrementCondition</t>
+  </si>
+  <si>
+    <t>LoadWithIncrement</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>CustomParameter1</t>
+  </si>
+  <si>
+    <t>CustomParameter2</t>
+  </si>
+  <si>
+    <t>CustomParameter3</t>
+  </si>
+  <si>
+    <t>dtsCSVFile</t>
+  </si>
+  <si>
+    <t>dtsOnPremiseSQL</t>
+  </si>
+  <si>
+    <t>INSERT INTO etl.StageMapping(StageTableID, SourceDataset, SourceSchema, SourceTable, DeleteCondition, IncrementCondition, LoadWithIncrement,Active, CustomParameter1, CustomParameter2, CustomParameter3) VALUES</t>
   </si>
 </sst>
 </file>
@@ -962,14 +1035,80 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="134.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.BusinessArea(BusinessAreaName, Description) VALUES ('",A2,"',N'",B2,"')")</f>
+        <v>INSERT INTO conf.BusinessArea(BusinessAreaName, Description) VALUES ('HumanResources',N'Lidské zdroje')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D5" si="0" xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.BusinessArea(BusinessAreaName, Description) VALUES ('",A3,"',N'",B3,"')")</f>
+        <v>INSERT INTO conf.BusinessArea(BusinessAreaName, Description) VALUES ('Person',N'Osoby')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.BusinessArea(BusinessAreaName, Description) VALUES ('Sales',N'Prodej')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.BusinessArea(BusinessAreaName, Description) VALUES ('Purchasing',N'Nákup')</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -979,10 +1118,10 @@
   <sheetPr>
     <tabColor rgb="FF4472C4"/>
   </sheetPr>
-  <dimension ref="A1:I3797"/>
+  <dimension ref="A1:J3797"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A4" sqref="A4:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,11 +1129,12 @@
     <col min="1" max="1" width="23.140625" customWidth="1"/>
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="134.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="134.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1002,90 +1142,108 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E2" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.StageTable(SchemaName, TableName, Description) VALUES ('",A2,"','",B2,"',N'",C2,"')")</f>
-        <v>INSERT INTO conf.StageTable(SchemaName, TableName, Description) VALUES ('stage_csv','Address',N'Číselník adres')</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="D2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.StageTable(SchemaName, TableName, Description, BusinessAreas) VALUES ('",A2,"','",B2,"',N'",C2,"',N'",D2,"')")</f>
+        <v>INSERT INTO conf.StageTable(SchemaName, TableName, Description, BusinessAreas) VALUES ('stage_csv','Address',N'Číselník adres',N'HumanResources, Person')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F6" si="0" xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.StageTable(SchemaName, TableName, Description, BusinessAreas) VALUES ('",A3,"','",B3,"',N'",C3,"',N'",D3,"')")</f>
+        <v>INSERT INTO conf.StageTable(SchemaName, TableName, Description, BusinessAreas) VALUES ('stage_onpremisedb','Employee',N'Číselník zaměstnanců',N'HumanResources, Person')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>109</v>
       </c>
-      <c r="C3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E6" si="0" xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.StageTable(SchemaName, TableName, Description) VALUES ('",A3,"','",B3,"',N'",C3,"')")</f>
-        <v>INSERT INTO conf.StageTable(SchemaName, TableName, Description) VALUES ('stage_onpremisedb','Employee',N'Číselník zaměstnanců')</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>108</v>
-      </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4" t="str">
+        <v>145</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO conf.StageTable(SchemaName, TableName, Description) VALUES ('stage_onpremisedb','SalesPerson',N'Číselník prodejců')</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>INSERT INTO conf.StageTable(SchemaName, TableName, Description, BusinessAreas) VALUES ('stage_onpremisedb','SalesPerson',N'Číselník prodejců',N'Sales')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" t="str">
+        <v>146</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO conf.StageTable(SchemaName, TableName, Description) VALUES ('stage_onpremisedb','SalesOrderHeader',N'Informace o prodejích')</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>INSERT INTO conf.StageTable(SchemaName, TableName, Description, BusinessAreas) VALUES ('stage_onpremisedb','SalesOrderHeader',N'Informace o prodejích',N'Sales')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E6" t="str">
+        <v>147</v>
+      </c>
+      <c r="D6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO conf.StageTable(SchemaName, TableName, Description) VALUES ('stage_onpremisedb','PurchaseOrderHeader',N'Informace o nákupech')</v>
-      </c>
-    </row>
-    <row r="3797" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I3797" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO 'StageTable'!B68:D68(StageTableID, ColumnName,SourceColumnName, DataType, Nullable) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'",B3797,"' AND SchemaName=N'",A3797,"')",",N'", D3797,"',N'", E3797,"',N'",F3797,"',",G3797,")")</f>
+        <v>INSERT INTO conf.StageTable(SchemaName, TableName, Description, BusinessAreas) VALUES ('stage_onpremisedb','PurchaseOrderHeader',N'Informace o nákupech',N'Purchase')</v>
+      </c>
+    </row>
+    <row r="3797" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J3797" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO 'StageTable'!B68:D68(StageTableID, ColumnName,SourceColumnName, DataType, Nullable) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'",B3797,"' AND SchemaName=N'",A3797,"')",",N'", D3797,"',N'", F3797,"',N'",G3797,"',",H3797,")")</f>
         <v>INSERT INTO 'StageTable'!B68:D68(StageTableID, ColumnName,SourceColumnName, DataType, Nullable) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'' AND SchemaName=N''),N'',N'',N'',)</v>
       </c>
     </row>
@@ -1097,13 +1255,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A62E405-D7A5-4E90-BFDB-0C0D8A35C057}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor rgb="FF4472C4"/>
   </sheetPr>
   <dimension ref="A1:H4472"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1135,21 +1293,21 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -1162,15 +1320,15 @@
         <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'Address' AND SchemaName=N'stage_csv'),N'AddressID',N'nvarchar(255)',1,N'')</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -1183,15 +1341,15 @@
         <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'Address' AND SchemaName=N'stage_csv'),N'AddressLine1',N'nvarchar(255)',1,N'')</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1204,15 +1362,15 @@
         <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'Address' AND SchemaName=N'stage_csv'),N'AddressLine2',N'nvarchar(255)',1,N'')</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -1225,15 +1383,15 @@
         <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'Address' AND SchemaName=N'stage_csv'),N'City',N'nvarchar(255)',1,N'')</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -1246,18 +1404,18 @@
         <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'Employee' AND SchemaName=N'stage_onpremisedb'),N'BusinessEntityID',N'int',0,N'')</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1267,18 +1425,18 @@
         <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'Employee' AND SchemaName=N'stage_onpremisedb'),N'LoginID',N'nvarchar(256)',0,N'')</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1288,18 +1446,18 @@
         <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'Employee' AND SchemaName=N'stage_onpremisedb'),N'JobTitle',N'nvarchar(50)',0,N'')</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1309,18 +1467,18 @@
         <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'Employee' AND SchemaName=N'stage_onpremisedb'),N'Gender',N'nchar(1)',0,N'')</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1330,15 +1488,15 @@
         <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'Employee' AND SchemaName=N'stage_onpremisedb'),N'MaritalStatus',N'nchar(1)',0,N'')</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -1351,39 +1509,39 @@
         <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'SalesPerson' AND SchemaName=N'stage_onpremisedb'),N'BusinessEntityID',N'int',0,N'')</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'SalesPerson' AND SchemaName=N'stage_onpremisedb'),N'SalesQuota',N'money',0,N'')</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'SalesPerson' AND SchemaName=N'stage_onpremisedb'),N'SalesQuota',N'money',1,N'')</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1393,18 +1551,18 @@
         <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'SalesPerson' AND SchemaName=N'stage_onpremisedb'),N'CommissionPct',N'smallmoney',0,N'')</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" t="s">
         <v>127</v>
-      </c>
-      <c r="D14" t="s">
-        <v>126</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1414,15 +1572,15 @@
         <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'SalesPerson' AND SchemaName=N'stage_onpremisedb'),N'Bonus',N'money',0,N'')</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
@@ -1435,18 +1593,18 @@
         <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'SalesOrderHeader' AND SchemaName=N'stage_onpremisedb'),N'SalesOrderID',N'int',0,N'')</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C16" t="s">
         <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1456,18 +1614,18 @@
         <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'SalesOrderHeader' AND SchemaName=N'stage_onpremisedb'),N'OrderDate',N'datetime',0,N'')</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" t="s">
         <v>132</v>
-      </c>
-      <c r="D17" t="s">
-        <v>131</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1477,18 +1635,18 @@
         <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'SalesOrderHeader' AND SchemaName=N'stage_onpremisedb'),N'DueDate',N'datetime',0,N'')</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1498,36 +1656,36 @@
         <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'SalesOrderHeader' AND SchemaName=N'stage_onpremisedb'),N'ShipDate',N'datetime',0,N'')</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'SalesOrderHeader' AND SchemaName=N'stage_onpremisedb'),N'SalesPersonID',N'int',0,N'')</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'SalesOrderHeader' AND SchemaName=N'stage_onpremisedb'),N'SalesPersonID',N'int',1,N'')</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
@@ -1540,15 +1698,15 @@
         <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'SalesOrderHeader' AND SchemaName=N'stage_onpremisedb'),N'BillToAddressID',N'int',0,N'')</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
@@ -1561,18 +1719,18 @@
         <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'SalesOrderHeader' AND SchemaName=N'stage_onpremisedb'),N'ShipToAddressID',N'int',0,N'')</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1582,18 +1740,18 @@
         <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'SalesOrderHeader' AND SchemaName=N'stage_onpremisedb'),N'SubTotal',N'money',0,N'')</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1603,18 +1761,18 @@
         <v>INSERT INTO conf.StageTableColumn(StageTableID, ColumnName, DataType, Nullable, Description) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'SalesOrderHeader' AND SchemaName=N'stage_onpremisedb'),N'TaxAmt',N'money',0,N'')</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1626,13 +1784,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
@@ -1647,16 +1805,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C26" t="s">
         <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1668,16 +1826,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1689,10 +1847,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s">
         <v>59</v>
@@ -1710,16 +1868,16 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1731,16 +1889,16 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1752,16 +1910,16 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -3796,13 +3954,7 @@
       <c r="C4472" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F31" xr:uid="{8A62E405-D7A5-4E90-BFDB-0C0D8A35C057}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="PurchaseOrderHeader"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F31" xr:uid="{8A62E405-D7A5-4E90-BFDB-0C0D8A35C057}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3814,35 +3966,185 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="255.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="B1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
+      <c r="N2" t="str">
+        <f>CONCATENATE(HiddenSheet!$C$3," ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'",E2,"' AND SchemaName=N'",D2,"')",",N'", A2, "',N'",B2,"',N'", C2,"',N'", F2, "',N'", G2, "',N'", H2, "',N'", I2, "',N'", J2, "',N'", K2, "',N'", L2, "')")</f>
+        <v>INSERT INTO etl.StageMapping(StageTableID, SourceDataset, SourceSchema, SourceTable, DeleteCondition, IncrementCondition, LoadWithIncrement,Active, CustomParameter1, CustomParameter2, CustomParameter3) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'Address' AND SchemaName=N'stage_csv'),N'dtsCSVFile',N'Person',N'Address',N'',N'',N'',N'1',N'',N'',N'')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="str">
+        <f>CONCATENATE(HiddenSheet!$C$3," ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'",E3,"' AND SchemaName=N'",D3,"')",",N'", A3, "',N'",B3,"',N'", C3,"',N'", F3, "',N'", G3, "',N'", H3, "',N'", I3, "',N'", J3, "',N'", K3, "',N'", L3, "')")</f>
+        <v>INSERT INTO etl.StageMapping(StageTableID, SourceDataset, SourceSchema, SourceTable, DeleteCondition, IncrementCondition, LoadWithIncrement,Active, CustomParameter1, CustomParameter2, CustomParameter3) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'Employee' AND SchemaName=N'stage_onpremisedb'),N'dtsOnPremiseSQL',N'HumanResources',N'Employee',N'',N'',N'',N'1',N'',N'',N'')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="str">
+        <f>CONCATENATE(HiddenSheet!$C$3," ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'",E4,"' AND SchemaName=N'",D4,"')",",N'", A4, "',N'",B4,"',N'", C4,"',N'", F4, "',N'", G4, "',N'", H4, "',N'", I4, "',N'", J4, "',N'", K4, "',N'", L4, "')")</f>
+        <v>INSERT INTO etl.StageMapping(StageTableID, SourceDataset, SourceSchema, SourceTable, DeleteCondition, IncrementCondition, LoadWithIncrement,Active, CustomParameter1, CustomParameter2, CustomParameter3) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'SalesPerson' AND SchemaName=N'stage_onpremisedb'),N'dtsOnPremiseSQL',N'Sales',N'SalesPerson',N'',N'',N'',N'1',N'',N'',N'')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="str">
+        <f>CONCATENATE(HiddenSheet!$C$3," ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'",E5,"' AND SchemaName=N'",D5,"')",",N'", A5, "',N'",B5,"',N'", C5,"',N'", F5, "',N'", G5, "',N'", H5, "',N'", I5, "',N'", J5, "',N'", K5, "',N'", L5, "')")</f>
+        <v>INSERT INTO etl.StageMapping(StageTableID, SourceDataset, SourceSchema, SourceTable, DeleteCondition, IncrementCondition, LoadWithIncrement,Active, CustomParameter1, CustomParameter2, CustomParameter3) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'SalesOrderHeader' AND SchemaName=N'stage_onpremisedb'),N'dtsOnPremiseSQL',N'Sales',N'SalesOrderHeader',N'',N'',N'',N'1',N'',N'',N'')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="str">
+        <f>CONCATENATE(HiddenSheet!$C$3," ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'",E6,"' AND SchemaName=N'",D6,"')",",N'", A6, "',N'",B6,"',N'", C6,"',N'", F6, "',N'", G6, "',N'", H6, "',N'", I6, "',N'", J6, "',N'", K6, "',N'", L6, "')")</f>
+        <v>INSERT INTO etl.StageMapping(StageTableID, SourceDataset, SourceSchema, SourceTable, DeleteCondition, IncrementCondition, LoadWithIncrement,Active, CustomParameter1, CustomParameter2, CustomParameter3) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'PurchaseOrderHeader' AND SchemaName=N'stage_onpremisedb'),N'dtsOnPremiseSQL',N'Purchasing',N'PurchaseOrderHeader',N'',N'',N'',N'1',N'',N'',N'')</v>
       </c>
     </row>
   </sheetData>
@@ -3855,21 +4157,21 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="A3:E27"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="91.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="119.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3879,11 +4181,14 @@
       <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -3893,9 +4198,9 @@
       <c r="C2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.DimensionTable(SchemaName, TableName, Loadtype) VALUES (N'",A2,"',N'",B2,"',N'",C2,"')")</f>
-        <v>INSERT INTO conf.DimensionTable(SchemaName, TableName, Loadtype) VALUES (N'dwh',N'Customer',N'SCD1')</v>
+      <c r="F2" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.DimensionTable(SchemaName, TableName, Loadtype, BusinessAreas) VALUES (N'",A2,"',N'",B2,"',N'",C2,"',N'",D2,"')")</f>
+        <v>INSERT INTO conf.DimensionTable(SchemaName, TableName, Loadtype, BusinessAreas) VALUES (N'dwh',N'Customer',N'SCD1',N'')</v>
       </c>
     </row>
   </sheetData>
@@ -4024,21 +4329,21 @@
   <sheetPr>
     <tabColor rgb="FF70AD47"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="91.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="91.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4048,11 +4353,14 @@
       <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -4062,9 +4370,9 @@
       <c r="C2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.FactTable(SchemaName, TableName, Loadtype) VALUES (N'",A2,"',N'",B2,"',N'",C2,"')")</f>
-        <v>INSERT INTO conf.FactTable(SchemaName, TableName, Loadtype) VALUES (N'dwh',N'CarDeal',N'Full')</v>
+      <c r="F2" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.FactTable(SchemaName, TableName, LoadType,BusinessAreas) VALUES (N'",A2,"',N'",B2,"',N'",C2,"',N'",D2,"')")</f>
+        <v>INSERT INTO conf.FactTable(SchemaName, TableName, LoadType,BusinessAreas) VALUES (N'dwh',N'CarDeal',N'Full',N'')</v>
       </c>
     </row>
   </sheetData>
@@ -4082,7 +4390,7 @@
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5163,6 +5471,26 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497ED895-4832-4904-ADD0-227404C1733E}">
+  <dimension ref="C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/AzureDWHFramework/AzureDWHFrameworkDataInput/DataInput.xlsx
+++ b/AzureDWHFramework/AzureDWHFrameworkDataInput/DataInput.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\source\repos\AzureDWHframework\AzureDWHFramework\AzureDWHFrameworkDataInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759376CF-AA5C-496A-9C2F-81923077E581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275A2F4F-BA20-4531-A923-B61391681B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Business Area" sheetId="12" r:id="rId1"/>
@@ -21,10 +21,11 @@
     <sheet name="DimTableColumn" sheetId="8" r:id="rId6"/>
     <sheet name="FactTable" sheetId="9" r:id="rId7"/>
     <sheet name="FactTableColumn" sheetId="10" r:id="rId8"/>
-    <sheet name="HiddenSheet" sheetId="13" r:id="rId9"/>
+    <sheet name="HiddenSheet" sheetId="13" state="hidden" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">DimTableColumn!$A$1:$I$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">StageMapping!$A$1:$L$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">StageTable!$A$1:$C$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">StageTableColumn!$A$1:$F$31</definedName>
   </definedNames>
@@ -113,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="171">
   <si>
     <t>SchemaName</t>
   </si>
@@ -130,9 +131,6 @@
     <t>CarMake</t>
   </si>
   <si>
-    <t>Customer</t>
-  </si>
-  <si>
     <t>ExchangeRates</t>
   </si>
   <si>
@@ -145,9 +143,6 @@
     <t>Nullable</t>
   </si>
   <si>
-    <t>No_</t>
-  </si>
-  <si>
     <t>nvarchar(255)</t>
   </si>
   <si>
@@ -626,6 +621,12 @@
   </si>
   <si>
     <t>INSERT INTO etl.StageMapping(StageTableID, SourceDataset, SourceSchema, SourceTable, DeleteCondition, IncrementCondition, LoadWithIncrement,Active, CustomParameter1, CustomParameter2, CustomParameter3) VALUES</t>
+  </si>
+  <si>
+    <t>YEAR(OrderDate) &gt; 2011</t>
+  </si>
+  <si>
+    <t>SalesPersonCode</t>
   </si>
 </sst>
 </file>
@@ -1032,13 +1033,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5874FF1C-0D7F-4AF9-8572-6A1FCFF9ACA7}">
-  <sheetPr>
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,10 +1052,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1062,10 +1063,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" t="s">
         <v>149</v>
-      </c>
-      <c r="B2" t="s">
-        <v>151</v>
       </c>
       <c r="D2" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.BusinessArea(BusinessAreaName, Description) VALUES ('",A2,"',N'",B2,"')")</f>
@@ -1074,10 +1075,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D5" si="0" xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.BusinessArea(BusinessAreaName, Description) VALUES ('",A3,"',N'",B3,"')")</f>
@@ -1086,10 +1087,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -1098,10 +1099,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -1115,13 +1116,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet3">
     <tabColor rgb="FF4472C4"/>
   </sheetPr>
   <dimension ref="A1:J3797"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,10 +1143,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -1153,16 +1154,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" t="s">
         <v>106</v>
       </c>
-      <c r="B2" t="s">
-        <v>108</v>
-      </c>
       <c r="C2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F2" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.StageTable(SchemaName, TableName, Description, BusinessAreas) VALUES ('",A2,"','",B2,"',N'",C2,"',N'",D2,"')")</f>
@@ -1171,16 +1172,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F6" si="0" xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.StageTable(SchemaName, TableName, Description, BusinessAreas) VALUES ('",A3,"','",B3,"',N'",C3,"',N'",D3,"')")</f>
@@ -1189,16 +1190,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" t="s">
         <v>109</v>
       </c>
-      <c r="B4" t="s">
-        <v>111</v>
-      </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
@@ -1207,16 +1208,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
@@ -1225,16 +1226,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
@@ -1255,13 +1256,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A62E405-D7A5-4E90-BFDB-0C0D8A35C057}">
-  <sheetPr>
+  <sheetPr codeName="Sheet4">
     <tabColor rgb="FF4472C4"/>
   </sheetPr>
   <dimension ref="A1:H4472"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,16 +1285,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
       <c r="F1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -1301,16 +1302,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" t="s">
         <v>106</v>
       </c>
-      <c r="B2" t="s">
-        <v>108</v>
-      </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1322,16 +1323,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
         <v>106</v>
       </c>
-      <c r="B3" t="s">
-        <v>108</v>
-      </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1343,16 +1344,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
         <v>106</v>
       </c>
-      <c r="B4" t="s">
-        <v>108</v>
-      </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1364,16 +1365,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
         <v>106</v>
       </c>
-      <c r="B5" t="s">
-        <v>108</v>
-      </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1385,16 +1386,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1406,16 +1407,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1427,16 +1428,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1448,16 +1449,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" t="s">
         <v>123</v>
-      </c>
-      <c r="D9" t="s">
-        <v>125</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1469,16 +1470,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1490,16 +1491,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" t="s">
         <v>109</v>
       </c>
-      <c r="B11" t="s">
-        <v>111</v>
-      </c>
       <c r="C11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1511,16 +1512,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" t="s">
         <v>109</v>
       </c>
-      <c r="B12" t="s">
-        <v>111</v>
-      </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1532,16 +1533,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" t="s">
         <v>109</v>
       </c>
-      <c r="B13" t="s">
-        <v>111</v>
-      </c>
       <c r="C13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1553,16 +1554,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" t="s">
         <v>109</v>
       </c>
-      <c r="B14" t="s">
-        <v>111</v>
-      </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1574,16 +1575,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1595,16 +1596,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1616,16 +1617,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1637,16 +1638,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1658,16 +1659,16 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1679,16 +1680,16 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1700,16 +1701,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1721,16 +1722,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1742,16 +1743,16 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1763,16 +1764,16 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1784,16 +1785,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1805,16 +1806,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1826,16 +1827,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1847,16 +1848,16 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1868,16 +1869,16 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1889,16 +1890,16 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C30" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D30" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1910,16 +1911,16 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -3963,24 +3964,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3814CC27-2922-4E59-A0B2-A859ABEBB4B3}">
-  <sheetPr>
+  <sheetPr codeName="Sheet5">
     <tabColor theme="8"/>
   </sheetPr>
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1"/>
     <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="255.5703125" customWidth="1"/>
@@ -3988,40 +3989,40 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" t="s">
         <v>158</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
         <v>159</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>160</v>
       </c>
-      <c r="D1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>161</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>162</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>163</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>164</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>165</v>
-      </c>
-      <c r="K1" t="s">
-        <v>166</v>
-      </c>
-      <c r="L1" t="s">
-        <v>167</v>
       </c>
       <c r="N1" t="s">
         <v>2</v>
@@ -4029,122 +4030,140 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
         <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
         <v>108</v>
       </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="N2" t="str">
         <f>CONCATENATE(HiddenSheet!$C$3," ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'",E2,"' AND SchemaName=N'",D2,"')",",N'", A2, "',N'",B2,"',N'", C2,"',N'", F2, "',N'", G2, "',N'", H2, "',N'", I2, "',N'", J2, "',N'", K2, "',N'", L2, "')")</f>
-        <v>INSERT INTO etl.StageMapping(StageTableID, SourceDataset, SourceSchema, SourceTable, DeleteCondition, IncrementCondition, LoadWithIncrement,Active, CustomParameter1, CustomParameter2, CustomParameter3) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'Address' AND SchemaName=N'stage_csv'),N'dtsCSVFile',N'Person',N'Address',N'',N'',N'',N'1',N'',N'',N'')</v>
+        <v>INSERT INTO etl.StageMapping(StageTableID, SourceDataset, SourceSchema, SourceTable, DeleteCondition, IncrementCondition, LoadWithIncrement,Active, CustomParameter1, CustomParameter2, CustomParameter3) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'Employee' AND SchemaName=N'stage_onpremisedb'),N'dtsOnPremiseSQL',N'HumanResources',N'Employee',N'',N'',N'0',N'1',N'',N'',N'')</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" t="s">
         <v>109</v>
       </c>
-      <c r="E3" t="s">
-        <v>110</v>
+      <c r="H3">
+        <v>0</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="N3" t="str">
         <f>CONCATENATE(HiddenSheet!$C$3," ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'",E3,"' AND SchemaName=N'",D3,"')",",N'", A3, "',N'",B3,"',N'", C3,"',N'", F3, "',N'", G3, "',N'", H3, "',N'", I3, "',N'", J3, "',N'", K3, "',N'", L3, "')")</f>
-        <v>INSERT INTO etl.StageMapping(StageTableID, SourceDataset, SourceSchema, SourceTable, DeleteCondition, IncrementCondition, LoadWithIncrement,Active, CustomParameter1, CustomParameter2, CustomParameter3) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'Employee' AND SchemaName=N'stage_onpremisedb'),N'dtsOnPremiseSQL',N'HumanResources',N'Employee',N'',N'',N'',N'1',N'',N'',N'')</v>
+        <v>INSERT INTO etl.StageMapping(StageTableID, SourceDataset, SourceSchema, SourceTable, DeleteCondition, IncrementCondition, LoadWithIncrement,Active, CustomParameter1, CustomParameter2, CustomParameter3) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'SalesPerson' AND SchemaName=N'stage_onpremisedb'),N'dtsOnPremiseSQL',N'Sales',N'SalesPerson',N'',N'',N'0',N'1',N'',N'',N'')</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="N4" t="str">
         <f>CONCATENATE(HiddenSheet!$C$3," ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'",E4,"' AND SchemaName=N'",D4,"')",",N'", A4, "',N'",B4,"',N'", C4,"',N'", F4, "',N'", G4, "',N'", H4, "',N'", I4, "',N'", J4, "',N'", K4, "',N'", L4, "')")</f>
-        <v>INSERT INTO etl.StageMapping(StageTableID, SourceDataset, SourceSchema, SourceTable, DeleteCondition, IncrementCondition, LoadWithIncrement,Active, CustomParameter1, CustomParameter2, CustomParameter3) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'SalesPerson' AND SchemaName=N'stage_onpremisedb'),N'dtsOnPremiseSQL',N'Sales',N'SalesPerson',N'',N'',N'',N'1',N'',N'',N'')</v>
+        <v>INSERT INTO etl.StageMapping(StageTableID, SourceDataset, SourceSchema, SourceTable, DeleteCondition, IncrementCondition, LoadWithIncrement,Active, CustomParameter1, CustomParameter2, CustomParameter3) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'SalesOrderHeader' AND SchemaName=N'stage_onpremisedb'),N'dtsOnPremiseSQL',N'Sales',N'SalesOrderHeader',N'',N'',N'0',N'1',N'',N'',N'')</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" t="s">
         <v>169</v>
       </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" t="s">
-        <v>112</v>
+      <c r="H5">
+        <v>1</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="N5" t="str">
         <f>CONCATENATE(HiddenSheet!$C$3," ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'",E5,"' AND SchemaName=N'",D5,"')",",N'", A5, "',N'",B5,"',N'", C5,"',N'", F5, "',N'", G5, "',N'", H5, "',N'", I5, "',N'", J5, "',N'", K5, "',N'", L5, "')")</f>
-        <v>INSERT INTO etl.StageMapping(StageTableID, SourceDataset, SourceSchema, SourceTable, DeleteCondition, IncrementCondition, LoadWithIncrement,Active, CustomParameter1, CustomParameter2, CustomParameter3) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'SalesOrderHeader' AND SchemaName=N'stage_onpremisedb'),N'dtsOnPremiseSQL',N'Sales',N'SalesOrderHeader',N'',N'',N'',N'1',N'',N'',N'')</v>
+        <v>INSERT INTO etl.StageMapping(StageTableID, SourceDataset, SourceSchema, SourceTable, DeleteCondition, IncrementCondition, LoadWithIncrement,Active, CustomParameter1, CustomParameter2, CustomParameter3) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'PurchaseOrderHeader' AND SchemaName=N'stage_onpremisedb'),N'dtsOnPremiseSQL',N'Purchasing',N'PurchaseOrderHeader',N'',N'YEAR(OrderDate) &gt; 2011',N'1',N'1',N'',N'',N'')</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
+        <v>106</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="N6" t="str">
         <f>CONCATENATE(HiddenSheet!$C$3," ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'",E6,"' AND SchemaName=N'",D6,"')",",N'", A6, "',N'",B6,"',N'", C6,"',N'", F6, "',N'", G6, "',N'", H6, "',N'", I6, "',N'", J6, "',N'", K6, "',N'", L6, "')")</f>
-        <v>INSERT INTO etl.StageMapping(StageTableID, SourceDataset, SourceSchema, SourceTable, DeleteCondition, IncrementCondition, LoadWithIncrement,Active, CustomParameter1, CustomParameter2, CustomParameter3) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'PurchaseOrderHeader' AND SchemaName=N'stage_onpremisedb'),N'dtsOnPremiseSQL',N'Purchasing',N'PurchaseOrderHeader',N'',N'',N'',N'1',N'',N'',N'')</v>
+        <v>INSERT INTO etl.StageMapping(StageTableID, SourceDataset, SourceSchema, SourceTable, DeleteCondition, IncrementCondition, LoadWithIncrement,Active, CustomParameter1, CustomParameter2, CustomParameter3) VALUES ( (SELECT StageTableID FROM conf.StageTable WHERE TableName=N'Address' AND SchemaName=N'stage_csv'),N'dtsCSVFile',N'Person',N'Address',N'',N'',N'0',N'1',N'',N'',N'')</v>
       </c>
     </row>
   </sheetData>
@@ -4154,13 +4173,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8409EB-2D2C-432D-81BA-E57B4146C664}">
-  <sheetPr>
+  <sheetPr codeName="Sheet6">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4168,10 +4187,11 @@
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="119.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="119.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4179,28 +4199,34 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.DimensionTable(SchemaName, TableName, Loadtype, BusinessAreas) VALUES (N'",A2,"',N'",B2,"',N'",C2,"',N'",D2,"')")</f>
-        <v>INSERT INTO conf.DimensionTable(SchemaName, TableName, Loadtype, BusinessAreas) VALUES (N'dwh',N'Customer',N'SCD1',N'')</v>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.DimensionTable(SchemaName, TableName, Loadtype, BusinessAreas, Description) VALUES (N'",A2,"',N'",B2,"',N'",C2,"',N'",D2,"',N'",E2,"')")</f>
+        <v>INSERT INTO conf.DimensionTable(SchemaName, TableName, Loadtype, BusinessAreas, Description) VALUES (N'dwh',N'SalesPerson',N'SCD1',N'Sales',N'')</v>
       </c>
     </row>
   </sheetData>
@@ -4212,13 +4238,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E7B4BB0-CEF4-49D3-8D25-23DCC1D7C5CD}">
-  <sheetPr>
+  <sheetPr codeName="Sheet7">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="K3" sqref="A3:K102"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4228,59 +4254,64 @@
     <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.42578125" customWidth="1"/>
+    <col min="11" max="11" width="45.140625" customWidth="1"/>
+    <col min="12" max="12" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="J1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -4291,12 +4322,129 @@
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="K2" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'",B2,"' AND SchemaName = N'",A2,"')",",N'",C2, "',N'",G2, "',",H2,",",I2,", (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'",F2,"' AND stgTable.SchemaName = N'",D2,"' AND stgTable.TableName = N'",E2,"'))")</f>
-        <v>INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'Customer' AND SchemaName = N'dwh'),N'Code',N'nvarchar(255)',0,1, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'No_' AND stgTable.SchemaName = N'stage_nav' AND stgTable.TableName = N'Customer'))</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName,Description, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'",B2,"' AND SchemaName = N'",A2,"')",",N'",C2, "',N'",J2, "',N'",G2, "',",H2,",",I2,", (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'",F2,"' AND stgTable.SchemaName = N'",D2,"' AND stgTable.TableName = N'",E2,"'))")</f>
+        <v>INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName,Description, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'SalesPerson' AND SchemaName = N'dwh'),N'SalesPersonCode',N'',N'int',0,1, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'BusinessEntityID' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'SalesPerson'))</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName,Description, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'",B3,"' AND SchemaName = N'",A3,"')",",N'",C3, "',N'",J3, "',N'",G3, "',",H3,",",I3,", (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'",F3,"' AND stgTable.SchemaName = N'",D3,"' AND stgTable.TableName = N'",E3,"'))")</f>
+        <v>INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName,Description, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'SalesPerson' AND SchemaName = N'dwh'),N'SalesQuota',N'',N'money',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'SalesQuota' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'SalesPerson'))</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName,Description, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'",B4,"' AND SchemaName = N'",A4,"')",",N'",C4, "',N'",J4, "',N'",G4, "',",H4,",",I4,", (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'",F4,"' AND stgTable.SchemaName = N'",D4,"' AND stgTable.TableName = N'",E4,"'))")</f>
+        <v>INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName,Description, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'SalesPerson' AND SchemaName = N'dwh'),N'CommissionPct',N'',N'smallmoney',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'CommissionPct' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'SalesPerson'))</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName,Description, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'",B5,"' AND SchemaName = N'",A5,"')",",N'",C5, "',N'",J5, "',N'",G5, "',",H5,",",I5,", (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'",F5,"' AND stgTable.SchemaName = N'",D5,"' AND stgTable.TableName = N'",E5,"'))")</f>
+        <v>INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName,Description, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'SalesPerson' AND SchemaName = N'dwh'),N'Bonus',N'',N'money',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'Bonus' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'SalesPerson'))</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L6" t="str">
+        <f t="shared" ref="L6:L8" si="0">_xlfn.CONCAT("INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName,Description, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'",B6,"' AND SchemaName = N'",A6,"')",",N'",C6, "',N'",J6, "',N'",G6, "',",H6,",",I6,", (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'",F6,"' AND stgTable.SchemaName = N'",D6,"' AND stgTable.TableName = N'",E6,"'))")</f>
+        <v>INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName,Description, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'' AND SchemaName = N''),N'',N'',N'',,, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'' AND stgTable.SchemaName = N'' AND stgTable.TableName = N''))</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName,Description, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'' AND SchemaName = N''),N'',N'',N'',,, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'' AND stgTable.SchemaName = N'' AND stgTable.TableName = N''))</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName,Description, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'' AND SchemaName = N''),N'',N'',N'',,, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'' AND stgTable.SchemaName = N'' AND stgTable.TableName = N''))</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F14" s="1"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -4326,7 +4474,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51644266-7B81-49A9-87EE-3E210C91CDFC}">
-  <sheetPr>
+  <sheetPr codeName="Sheet8">
     <tabColor rgb="FF70AD47"/>
   </sheetPr>
   <dimension ref="A1:F2"/>
@@ -4351,10 +4499,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -4362,13 +4510,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F2" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.FactTable(SchemaName, TableName, LoadType,BusinessAreas) VALUES (N'",A2,"',N'",B2,"',N'",C2,"',N'",D2,"')")</f>
@@ -4383,7 +4531,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA91119-AB45-4CBF-AA80-7952E2D33F3A}">
-  <sheetPr>
+  <sheetPr codeName="Sheet9">
     <tabColor rgb="FF70AD47"/>
   </sheetPr>
   <dimension ref="A1:M95"/>
@@ -4405,37 +4553,37 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" t="s">
-        <v>47</v>
-      </c>
       <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
         <v>34</v>
-      </c>
-      <c r="F1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>36</v>
       </c>
       <c r="M1" t="s">
         <v>2</v>
@@ -4443,13 +4591,13 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -4458,16 +4606,16 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -4482,989 +4630,989 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C46" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B48" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C48" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C50" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B58" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B59" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C59" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B60" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C60" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B62" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B63" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B64" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B65" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B66" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C66" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B67" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C67" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B68" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C68" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B69" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C69" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B70" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C70" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B71" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C71" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B72" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C72" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B73" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C73" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B74" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C74" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B75" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C75" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B76" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C76" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B77" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B78" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C78" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B79" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C79" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B80" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C80" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B81" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C81" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B82" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C82" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B83" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C83" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B84" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C84" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B85" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C85" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B86" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C86" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B87" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C87" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B88" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C88" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B89" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C89" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B90" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C90" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B91" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B93" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B94" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B95" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -5476,6 +5624,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497ED895-4832-4904-ADD0-227404C1733E}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5486,7 +5635,7 @@
   <sheetData>
     <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -5495,9 +5644,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5666,19 +5818,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C35E53F-2B8C-4469-8C9B-1A3659EAE88B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECF01738-4FB6-4420-ACD5-05F4ADA23550}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5703,9 +5851,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECF01738-4FB6-4420-ACD5-05F4ADA23550}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C35E53F-2B8C-4469-8C9B-1A3659EAE88B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/AzureDWHFramework/AzureDWHFrameworkDataInput/DataInput.xlsx
+++ b/AzureDWHFramework/AzureDWHFrameworkDataInput/DataInput.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\source\repos\AzureDWHframework\AzureDWHFramework\AzureDWHFrameworkDataInput\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\source\repos\AzureDWHFramework\AzureDWHFramework\AzureDWHFrameworkDataInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275A2F4F-BA20-4531-A923-B61391681B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4F9028-7EAD-49FA-A42C-FD963D5C3EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Business Area" sheetId="12" r:id="rId1"/>
@@ -57,9 +57,9 @@
   <commentList>
     <comment ref="C1" authorId="0" shapeId="0" xr:uid="{A97A3F6D-258A-47C2-A556-02F0EA8396ED}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t xml:space="preserve">[Komentář ve vlákně]
+Vaše verze aplikace Excel vám umožňuje číst tento komentář ve vlákně, ale jakékoli jeho úpravy se odeberou, pokud se soubor otevře v novější verzi aplikace Excel. Další informace: https://go.microsoft.com/fwlink/?linkid=870924
+Komentář:
     SCD1 or SCD2
 </t>
       </text>
@@ -76,9 +76,9 @@
   <commentList>
     <comment ref="C1" authorId="0" shapeId="0" xr:uid="{F6EABC82-789E-47F4-973F-9396278280B8}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Komentář ve vlákně]
+Vaše verze aplikace Excel vám umožňuje číst tento komentář ve vlákně, ale jakékoli jeho úpravy se odeberou, pokud se soubor otevře v novější verzi aplikace Excel. Další informace: https://go.microsoft.com/fwlink/?linkid=870924
+Komentář:
     Full or Increment</t>
       </text>
     </comment>
@@ -95,17 +95,17 @@
   <commentList>
     <comment ref="G1" authorId="0" shapeId="0" xr:uid="{B7616948-429F-462A-BE7D-FEF744E778FA}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Komentář ve vlákně]
+Vaše verze aplikace Excel vám umožňuje číst tento komentář ve vlákně, ale jakékoli jeho úpravy se odeberou, pokud se soubor otevře v novější verzi aplikace Excel. Další informace: https://go.microsoft.com/fwlink/?linkid=870924
+Komentář:
     Leave blank when column is not referencing to dimension</t>
       </text>
     </comment>
     <comment ref="H1" authorId="1" shapeId="0" xr:uid="{322A949E-A72E-425E-8252-7370C9F16B86}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Komentář ve vlákně]
+Vaše verze aplikace Excel vám umožňuje číst tento komentář ve vlákně, ale jakékoli jeho úpravy se odeberou, pokud se soubor otevře v novější verzi aplikace Excel. Další informace: https://go.microsoft.com/fwlink/?linkid=870924
+Komentář:
     Leave blank when column is not referencing to dimension</t>
       </text>
     </comment>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="172">
   <si>
     <t>SchemaName</t>
   </si>
@@ -627,6 +627,9 @@
   </si>
   <si>
     <t>SalesPersonCode</t>
+  </si>
+  <si>
+    <t>EmployeeCode</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1122,7 +1125,7 @@
   <dimension ref="A1:J3797"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,7 +1265,7 @@
   <dimension ref="A1:H4472"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D14"/>
+      <selection activeCell="D6" sqref="D6:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4178,8 +4181,8 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4243,8 +4246,8 @@
   </sheetPr>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4427,21 +4430,168 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
       <c r="L6" t="str">
         <f t="shared" ref="L6:L8" si="0">_xlfn.CONCAT("INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName,Description, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'",B6,"' AND SchemaName = N'",A6,"')",",N'",C6, "',N'",J6, "',N'",G6, "',",H6,",",I6,", (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'",F6,"' AND stgTable.SchemaName = N'",D6,"' AND stgTable.TableName = N'",E6,"'))")</f>
-        <v>INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName,Description, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'' AND SchemaName = N''),N'',N'',N'',,, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'' AND stgTable.SchemaName = N'' AND stgTable.TableName = N''))</v>
+        <v>INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName,Description, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'SalesPerson' AND SchemaName = N'dwh'),N'EmployeeCode',N'',N'int',0,1, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'BusinessEntityID' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'Employee'))</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
       <c r="L7" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName,Description, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'' AND SchemaName = N''),N'',N'',N'',,, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'' AND stgTable.SchemaName = N'' AND stgTable.TableName = N''))</v>
+        <f t="shared" ref="L7:L10" si="1">_xlfn.CONCAT("INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName,Description, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'",B7,"' AND SchemaName = N'",A7,"')",",N'",C7, "',N'",J7, "',N'",G7, "',",H7,",",I7,", (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'",F7,"' AND stgTable.SchemaName = N'",D7,"' AND stgTable.TableName = N'",E7,"'))")</f>
+        <v>INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName,Description, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'SalesPerson' AND SchemaName = N'dwh'),N'LoginID',N'',N'nvarchar(256)',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'LoginID' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'Employee'))</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
       <c r="L8" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName,Description, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'' AND SchemaName = N''),N'',N'',N'',,, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'' AND stgTable.SchemaName = N'' AND stgTable.TableName = N''))</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName,Description, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'SalesPerson' AND SchemaName = N'dwh'),N'JobTitle',N'',N'nvarchar(50)',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'JobTitle' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'Employee'))</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName,Description, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'SalesPerson' AND SchemaName = N'dwh'),N'Gender',N'',N'nchar(1)',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'Gender' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'Employee'))</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName,Description, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'SalesPerson' AND SchemaName = N'dwh'),N'MaritalStatus',N'',N'nchar(1)',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'MaritalStatus' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'Employee'))</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -5644,12 +5794,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5818,15 +5965,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECF01738-4FB6-4420-ACD5-05F4ADA23550}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C35E53F-2B8C-4469-8C9B-1A3659EAE88B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5851,10 +6002,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C35E53F-2B8C-4469-8C9B-1A3659EAE88B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECF01738-4FB6-4420-ACD5-05F4ADA23550}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/AzureDWHFramework/AzureDWHFrameworkDataInput/DataInput.xlsx
+++ b/AzureDWHFramework/AzureDWHFrameworkDataInput/DataInput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\source\repos\AzureDWHFramework\AzureDWHFramework\AzureDWHFrameworkDataInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4F9028-7EAD-49FA-A42C-FD963D5C3EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A992755-D8C0-4DD2-B6ED-4B7FF62358DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Business Area" sheetId="12" r:id="rId1"/>
@@ -21,7 +21,8 @@
     <sheet name="DimTableColumn" sheetId="8" r:id="rId6"/>
     <sheet name="FactTable" sheetId="9" r:id="rId7"/>
     <sheet name="FactTableColumn" sheetId="10" r:id="rId8"/>
-    <sheet name="HiddenSheet" sheetId="13" state="hidden" r:id="rId9"/>
+    <sheet name="DWHMapping" sheetId="14" r:id="rId9"/>
+    <sheet name="HiddenSheet" sheetId="13" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">DimTableColumn!$A$1:$I$79</definedName>
@@ -114,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="178">
   <si>
     <t>SchemaName</t>
   </si>
@@ -630,6 +631,24 @@
   </si>
   <si>
     <t>EmployeeCode</t>
+  </si>
+  <si>
+    <t>TableType</t>
+  </si>
+  <si>
+    <t>Layer</t>
+  </si>
+  <si>
+    <t>FullTableName</t>
+  </si>
+  <si>
+    <t>LoadingprocedureName</t>
+  </si>
+  <si>
+    <t>Dimension</t>
+  </si>
+  <si>
+    <t>Fact</t>
   </si>
 </sst>
 </file>
@@ -1117,6 +1136,37 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497ED895-4832-4904-ADD0-227404C1733E}">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="C3:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3">
@@ -4246,7 +4296,7 @@
   </sheetPr>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -4458,7 +4508,7 @@
         <v>1</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" ref="L6:L8" si="0">_xlfn.CONCAT("INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName,Description, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'",B6,"' AND SchemaName = N'",A6,"')",",N'",C6, "',N'",J6, "',N'",G6, "',",H6,",",I6,", (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'",F6,"' AND stgTable.SchemaName = N'",D6,"' AND stgTable.TableName = N'",E6,"'))")</f>
+        <f t="shared" ref="L6" si="0">_xlfn.CONCAT("INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName,Description, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'",B6,"' AND SchemaName = N'",A6,"')",",N'",C6, "',N'",J6, "',N'",G6, "',",H6,",",I6,", (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'",F6,"' AND stgTable.SchemaName = N'",D6,"' AND stgTable.TableName = N'",E6,"'))")</f>
         <v>INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName,Description, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'SalesPerson' AND SchemaName = N'dwh'),N'EmployeeCode',N'',N'int',0,1, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'BusinessEntityID' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'Employee'))</v>
       </c>
     </row>
@@ -4630,7 +4680,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4688,7 +4738,7 @@
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5773,30 +5823,106 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497ED895-4832-4904-ADD0-227404C1733E}">
-  <sheetPr codeName="Sheet10"/>
-  <dimension ref="C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260AFB97-602A-4405-A440-71F52C0C6415}">
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" customWidth="1"/>
+    <col min="12" max="12" width="207.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>168</v>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J1" t="s">
+        <v>173</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="str">
+        <f>_xlfn.CONCAT(DWHMapping!A2,".",DWHMapping!B2)</f>
+        <v>dwh.CarDeal</v>
+      </c>
+      <c r="E2" t="str">
+        <f>_xlfn.CONCAT(A2,".p_Load_",IF(D2="Dimension","D_","F_"),B2)</f>
+        <v>dwh.p_Load_F_CarDeal</v>
+      </c>
+      <c r="L2" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("INSERT INTO etl.DwhMapping(TableName, LoadingProcedureName, DeleteCondition,IncrementCondition, LoadWithIncrement, TableType, Active,Layer) VALUES (N'",C2,"',N'",E2,"',N'",F2,"',N'",G2,"'',N'",H2,"'',N'",D2,"'',N'",I2,"'',N'",J2,"')")</f>
+        <v>INSERT INTO etl.DwhMapping(TableName, LoadingProcedureName, DeleteCondition,IncrementCondition, LoadWithIncrement, TableType, Active,Layer) VALUES (N'dwh.CarDeal',N'dwh.p_Load_F_CarDeal',N'',N''',N''',N''',N''',N'')</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CEED3B15-190D-4F52-A879-97C52F798BAD}">
+          <x14:formula1>
+            <xm:f>HiddenSheet!C6:C7</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5965,19 +6091,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C35E53F-2B8C-4469-8C9B-1A3659EAE88B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECF01738-4FB6-4420-ACD5-05F4ADA23550}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6002,9 +6124,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECF01738-4FB6-4420-ACD5-05F4ADA23550}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C35E53F-2B8C-4469-8C9B-1A3659EAE88B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/AzureDWHFramework/AzureDWHFrameworkDataInput/DataInput.xlsx
+++ b/AzureDWHFramework/AzureDWHFrameworkDataInput/DataInput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\source\repos\AzureDWHFramework\AzureDWHFramework\AzureDWHFrameworkDataInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A992755-D8C0-4DD2-B6ED-4B7FF62358DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0A6C3E-320F-448A-8D26-A6D75A35415C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Business Area" sheetId="12" r:id="rId1"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="111">
   <si>
     <t>SchemaName</t>
   </si>
@@ -126,15 +126,6 @@
     <t>INSERT</t>
   </si>
   <si>
-    <t>stage_nav</t>
-  </si>
-  <si>
-    <t>CarMake</t>
-  </si>
-  <si>
-    <t>ExchangeRates</t>
-  </si>
-  <si>
     <t>ColumnName</t>
   </si>
   <si>
@@ -153,45 +144,9 @@
     <t>int</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>CompanyID</t>
-  </si>
-  <si>
-    <t>bidRate</t>
-  </si>
-  <si>
-    <t>askRate</t>
-  </si>
-  <si>
-    <t>midRate</t>
-  </si>
-  <si>
-    <t>CostCenter</t>
-  </si>
-  <si>
     <t>Sales</t>
   </si>
   <si>
-    <t>Discount</t>
-  </si>
-  <si>
-    <t>Margin</t>
-  </si>
-  <si>
-    <t>BudgetLabourHours</t>
-  </si>
-  <si>
-    <t>BudgetLabourAmount</t>
-  </si>
-  <si>
-    <t>BudgetLabourMargin</t>
-  </si>
-  <si>
-    <t>LabourHoursCost</t>
-  </si>
-  <si>
     <t>LoadType</t>
   </si>
   <si>
@@ -228,24 +183,6 @@
     <t>Full</t>
   </si>
   <si>
-    <t>CarInsurance</t>
-  </si>
-  <si>
-    <t>StockMovement</t>
-  </si>
-  <si>
-    <t>CarPlan</t>
-  </si>
-  <si>
-    <t>ServiceHours</t>
-  </si>
-  <si>
-    <t>ServiceBudget</t>
-  </si>
-  <si>
-    <t>ServiceInvoiced</t>
-  </si>
-  <si>
     <t>FactTableSchemaName</t>
   </si>
   <si>
@@ -255,180 +192,12 @@
     <t>FactTableColumn</t>
   </si>
   <si>
-    <t>CarMakeID</t>
-  </si>
-  <si>
-    <t>CarID</t>
-  </si>
-  <si>
-    <t>InsuranceCompanyID</t>
-  </si>
-  <si>
-    <t>CarDealCarTypeID</t>
-  </si>
-  <si>
-    <t>FinanceTypeID</t>
-  </si>
-  <si>
-    <t>CustomerID</t>
-  </si>
-  <si>
-    <t>CarLocationID</t>
-  </si>
-  <si>
-    <t>SalesTypeID</t>
-  </si>
-  <si>
-    <t>PurchaseTypeID</t>
-  </si>
-  <si>
-    <t>CustomerTypeID</t>
-  </si>
-  <si>
-    <t>CarPlacementID</t>
-  </si>
-  <si>
     <t>EmployeeID</t>
   </si>
   <si>
-    <t>CommissionsFromCarFinance</t>
-  </si>
-  <si>
-    <t>LeasingCommission</t>
-  </si>
-  <si>
-    <t>FixedSalePrice</t>
-  </si>
-  <si>
-    <t>FixedPurchasePrice</t>
-  </si>
-  <si>
-    <t>IntermediaryCommissionCZK</t>
-  </si>
-  <si>
-    <t>CurrencyID</t>
-  </si>
-  <si>
-    <t>PrimaryCurrencyFlag</t>
-  </si>
-  <si>
-    <t>ExtraBonus</t>
-  </si>
-  <si>
-    <t>BulkBonus</t>
-  </si>
-  <si>
-    <t>MilleageState</t>
-  </si>
-  <si>
-    <t>InsuranceSpecialistID</t>
-  </si>
-  <si>
-    <t>CarInsuranceContractID</t>
-  </si>
-  <si>
-    <t>CarInsuranceNumber</t>
-  </si>
-  <si>
-    <t>InsuranceAmount</t>
-  </si>
-  <si>
-    <t>CommissionAmount</t>
-  </si>
-  <si>
-    <t>DateFrom</t>
-  </si>
-  <si>
-    <t>DateTo</t>
-  </si>
-  <si>
-    <t>ItemID</t>
-  </si>
-  <si>
-    <t>LocationID</t>
-  </si>
-  <si>
-    <t>PostingDateID</t>
-  </si>
-  <si>
-    <t>PlanDateID</t>
-  </si>
-  <si>
-    <t>PlanID</t>
-  </si>
-  <si>
-    <t>baseCurrencyID</t>
-  </si>
-  <si>
-    <t>quoteCurrencyID</t>
-  </si>
-  <si>
-    <t>DateID</t>
-  </si>
-  <si>
-    <t>JobCardKey</t>
-  </si>
-  <si>
-    <t>CompanyKey</t>
-  </si>
-  <si>
-    <t>MechanicKey</t>
-  </si>
-  <si>
-    <t>AttendanceDateID</t>
-  </si>
-  <si>
-    <t>UsageHours</t>
-  </si>
-  <si>
-    <t>ServiceCenterID</t>
-  </si>
-  <si>
-    <t>CostCenterID</t>
-  </si>
-  <si>
-    <t>BillingTypeID</t>
-  </si>
-  <si>
-    <t>ServiceInvoiceID</t>
-  </si>
-  <si>
-    <t>ResourceID</t>
-  </si>
-  <si>
-    <t>TechnicianID</t>
-  </si>
-  <si>
-    <t>MechanicID</t>
-  </si>
-  <si>
-    <t>JobCardID</t>
-  </si>
-  <si>
-    <t>ServiceItemID</t>
-  </si>
-  <si>
     <t>OrderDate</t>
   </si>
   <si>
-    <t>InvoiceDate</t>
-  </si>
-  <si>
-    <t>InvoicedHours</t>
-  </si>
-  <si>
-    <t>InvoicedHoursDetail</t>
-  </si>
-  <si>
-    <t>InvoicedAmount</t>
-  </si>
-  <si>
-    <t>NormAmount</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
     <t>stage_csv</t>
   </si>
   <si>
@@ -649,6 +418,36 @@
   </si>
   <si>
     <t>Fact</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>OrderDateID</t>
+  </si>
+  <si>
+    <t>DueDateID</t>
+  </si>
+  <si>
+    <t>ShipDateID</t>
+  </si>
+  <si>
+    <t>BillAddressID</t>
+  </si>
+  <si>
+    <t>ShipAddressID</t>
+  </si>
+  <si>
+    <t>SCD2</t>
+  </si>
+  <si>
+    <t>nchar(5)</t>
+  </si>
+  <si>
+    <t>AddressCode</t>
+  </si>
+  <si>
+    <t>datetime2(7)</t>
   </si>
 </sst>
 </file>
@@ -1074,10 +873,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1085,10 +884,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="D2" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.BusinessArea(BusinessAreaName, Description) VALUES ('",A2,"',N'",B2,"')")</f>
@@ -1097,10 +896,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D5" si="0" xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.BusinessArea(BusinessAreaName, Description) VALUES ('",A3,"',N'",B3,"')")</f>
@@ -1109,10 +908,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -1121,10 +920,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -1149,17 +948,17 @@
   <sheetData>
     <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>176</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>177</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1175,7 +974,7 @@
   <dimension ref="A1:J3797"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,10 +995,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -1207,16 +1006,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="F2" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.StageTable(SchemaName, TableName, Description, BusinessAreas) VALUES ('",A2,"','",B2,"',N'",C2,"',N'",D2,"')")</f>
@@ -1225,16 +1024,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F6" si="0" xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.StageTable(SchemaName, TableName, Description, BusinessAreas) VALUES ('",A3,"','",B3,"',N'",C3,"',N'",D3,"')")</f>
@@ -1243,16 +1042,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
@@ -1261,16 +1060,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
@@ -1279,16 +1078,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
@@ -1315,7 +1114,7 @@
   <dimension ref="A1:H4472"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D10"/>
+      <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,16 +1137,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -1355,16 +1154,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1376,16 +1175,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1397,16 +1196,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1418,16 +1217,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1439,16 +1238,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1460,16 +1259,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1481,16 +1280,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1502,16 +1301,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1523,16 +1322,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1544,16 +1343,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1565,16 +1364,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1586,16 +1385,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1607,16 +1406,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1628,16 +1427,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1649,16 +1448,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1670,16 +1469,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1691,16 +1490,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1712,16 +1511,16 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>133</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1733,16 +1532,16 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>134</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1754,16 +1553,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1775,16 +1574,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>136</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1796,16 +1595,16 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1817,16 +1616,16 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1838,16 +1637,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1859,16 +1658,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1880,16 +1679,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1901,16 +1700,16 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1922,16 +1721,16 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>136</v>
+        <v>59</v>
       </c>
       <c r="D29" t="s">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1943,16 +1742,16 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1964,16 +1763,16 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="D31" t="s">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -4042,40 +3841,40 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c r="G1" t="s">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="H1" t="s">
-        <v>161</v>
+        <v>84</v>
       </c>
       <c r="I1" t="s">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c r="J1" t="s">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="K1" t="s">
-        <v>164</v>
+        <v>87</v>
       </c>
       <c r="L1" t="s">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c r="N1" t="s">
         <v>2</v>
@@ -4083,19 +3882,19 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -4110,19 +3909,19 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -4137,19 +3936,19 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -4164,22 +3963,22 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -4194,19 +3993,19 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -4229,17 +4028,18 @@
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" customWidth="1"/>
     <col min="7" max="7" width="119.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -4252,13 +4052,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -4266,20 +4066,74 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G2" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.DimensionTable(SchemaName, TableName, Loadtype, BusinessAreas, Description) VALUES (N'",A2,"',N'",B2,"',N'",C2,"',N'",D2,"',N'",E2,"')")</f>
         <v>INSERT INTO conf.DimensionTable(SchemaName, TableName, Loadtype, BusinessAreas, Description) VALUES (N'dwh',N'SalesPerson',N'SCD1',N'Sales',N'')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.DimensionTable(SchemaName, TableName, Loadtype, BusinessAreas, Description) VALUES (N'",A3,"',N'",B3,"',N'",C3,"',N'",D3,"',N'",E3,"')")</f>
+        <v>INSERT INTO conf.DimensionTable(SchemaName, TableName, Loadtype, BusinessAreas, Description) VALUES (N'dwh',N'Employee',N'SCD2',N'Sales',N'')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.DimensionTable(SchemaName, TableName, Loadtype, BusinessAreas, Description) VALUES (N'",A4,"',N'",B4,"',N'",C4,"',N'",D4,"',N'",E4,"')")</f>
+        <v>INSERT INTO conf.DimensionTable(SchemaName, TableName, Loadtype, BusinessAreas, Description) VALUES (N'dwh',N'Address',N'SCD1',N'HumanResources, Person',N'')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.DimensionTable(SchemaName, TableName, Loadtype, BusinessAreas, Description) VALUES (N'",A5,"',N'",B5,"',N'",C5,"',N'",D5,"',N'",E5,"')")</f>
+        <v>INSERT INTO conf.DimensionTable(SchemaName, TableName, Loadtype, BusinessAreas, Description) VALUES (N'dwh',N'Date',N'SCD1',N'Sales',N'')</v>
       </c>
     </row>
   </sheetData>
@@ -4297,7 +4151,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4314,34 +4168,34 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
@@ -4349,25 +4203,25 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -4382,25 +4236,25 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -4415,25 +4269,25 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -4448,25 +4302,25 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -4481,25 +4335,25 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>171</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -4509,30 +4363,30 @@
       </c>
       <c r="L6" t="str">
         <f t="shared" ref="L6" si="0">_xlfn.CONCAT("INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName,Description, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'",B6,"' AND SchemaName = N'",A6,"')",",N'",C6, "',N'",J6, "',N'",G6, "',",H6,",",I6,", (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'",F6,"' AND stgTable.SchemaName = N'",D6,"' AND stgTable.TableName = N'",E6,"'))")</f>
-        <v>INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName,Description, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'SalesPerson' AND SchemaName = N'dwh'),N'EmployeeCode',N'',N'int',0,1, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'BusinessEntityID' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'Employee'))</v>
+        <v>INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName,Description, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'Employee' AND SchemaName = N'dwh'),N'EmployeeCode',N'',N'int',0,1, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'BusinessEntityID' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'Employee'))</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -4541,31 +4395,31 @@
         <v>0</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" ref="L7:L10" si="1">_xlfn.CONCAT("INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName,Description, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'",B7,"' AND SchemaName = N'",A7,"')",",N'",C7, "',N'",J7, "',N'",G7, "',",H7,",",I7,", (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'",F7,"' AND stgTable.SchemaName = N'",D7,"' AND stgTable.TableName = N'",E7,"'))")</f>
-        <v>INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName,Description, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'SalesPerson' AND SchemaName = N'dwh'),N'LoginID',N'',N'nvarchar(256)',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'LoginID' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'Employee'))</v>
+        <f t="shared" ref="L7:L19" si="1">_xlfn.CONCAT("INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName,Description, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'",B7,"' AND SchemaName = N'",A7,"')",",N'",C7, "',N'",J7, "',N'",G7, "',",H7,",",I7,", (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'",F7,"' AND stgTable.SchemaName = N'",D7,"' AND stgTable.TableName = N'",E7,"'))")</f>
+        <v>INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName,Description, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'Employee' AND SchemaName = N'dwh'),N'LoginID',N'',N'nvarchar(256)',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'LoginID' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'Employee'))</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4575,30 +4429,30 @@
       </c>
       <c r="L8" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName,Description, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'SalesPerson' AND SchemaName = N'dwh'),N'JobTitle',N'',N'nvarchar(50)',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'JobTitle' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'Employee'))</v>
+        <v>INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName,Description, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'Employee' AND SchemaName = N'dwh'),N'JobTitle',N'',N'nvarchar(50)',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'JobTitle' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'Employee'))</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s">
         <v>108</v>
-      </c>
-      <c r="F9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G9" t="s">
-        <v>123</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -4608,30 +4462,30 @@
       </c>
       <c r="L9" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName,Description, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'SalesPerson' AND SchemaName = N'dwh'),N'Gender',N'',N'nchar(1)',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'Gender' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'Employee'))</v>
+        <v>INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName,Description, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'Employee' AND SchemaName = N'dwh'),N'Gender',N'',N'nchar(5)',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'Gender' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'Employee'))</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" t="s">
         <v>108</v>
-      </c>
-      <c r="F10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10" t="s">
-        <v>123</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -4641,11 +4495,160 @@
       </c>
       <c r="L10" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName,Description, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'SalesPerson' AND SchemaName = N'dwh'),N'MaritalStatus',N'',N'nchar(1)',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'MaritalStatus' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'Employee'))</v>
+        <v>INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName,Description, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'Employee' AND SchemaName = N'dwh'),N'MaritalStatus',N'',N'nchar(5)',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'MaritalStatus' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'Employee'))</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName,Description, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'Address' AND SchemaName = N'dwh'),N'AddressCode',N'',N'nvarchar(255)',0,1, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'AddressID' AND stgTable.SchemaName = N'stage_csv' AND stgTable.TableName = N'Address'))</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName,Description, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'Address' AND SchemaName = N'dwh'),N'AddressLine1',N'',N'nvarchar(255)',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'AddressLine1' AND stgTable.SchemaName = N'stage_csv' AND stgTable.TableName = N'Address'))</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName,Description, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'Address' AND SchemaName = N'dwh'),N'AddressLine2',N'',N'nvarchar(255)',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'AddressLine2' AND stgTable.SchemaName = N'stage_csv' AND stgTable.TableName = N'Address'))</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F14" s="1"/>
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName,Description, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'Address' AND SchemaName = N'dwh'),N'City',N'',N'nvarchar(255)',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'City' AND stgTable.SchemaName = N'stage_csv' AND stgTable.TableName = N'Address'))</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F17" s="1"/>
@@ -4680,7 +4683,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4699,10 +4702,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -4710,17 +4713,20 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
       </c>
       <c r="F2" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.FactTable(SchemaName, TableName, LoadType,BusinessAreas) VALUES (N'",A2,"',N'",B2,"',N'",C2,"',N'",D2,"')")</f>
-        <v>INSERT INTO conf.FactTable(SchemaName, TableName, LoadType,BusinessAreas) VALUES (N'dwh',N'CarDeal',N'Full',N'')</v>
+        <v>INSERT INTO conf.FactTable(SchemaName, TableName, LoadType,BusinessAreas) VALUES (N'dwh',N'SalesOrderHeader',N'Full',N'Sales')</v>
       </c>
     </row>
   </sheetData>
@@ -4736,9 +4742,9 @@
   </sheetPr>
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4753,37 +4759,37 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="M1" t="s">
         <v>2</v>
@@ -4791,31 +4797,25 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -4824,996 +4824,369 @@
         <v>1</v>
       </c>
       <c r="M2" t="str">
-        <f t="shared" ref="M2" si="0">IF(ISBLANK(G2),_xlfn.CONCAT("INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'",B2,"' AND SchemaName = N'",A2,"')",",N'",C2, "',N'",I2, "',",J2,",",K2,", (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'",F2,"' AND stgTable.SchemaName = N'",D2,"' AND stgTable.TableName = N'",E2,"'),","NULL)"),_xlfn.CONCAT("INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'",B2,"' AND SchemaName = N'",A2,"')",",N'",C2, "',N'",I2, "',",J2,",",K2,", (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'",F2,"' AND stgTable.SchemaName = N'",D2,"' AND stgTable.TableName = N'",E2,"'),","(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'",H2,"' AND SchemaName = N'",G2,"'))"))</f>
-        <v>INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'CarDeal' AND SchemaName = N'dwh'),N'CarMakeID',N'int',0,1, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'Code' AND stgTable.SchemaName = N'stage_nav' AND stgTable.TableName = N'CarMake'),(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'CarMake' AND SchemaName = N'dwh'))</v>
+        <f t="shared" ref="M2:M11" si="0">IF(ISBLANK(G2),_xlfn.CONCAT("INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'",B2,"' AND SchemaName = N'",A2,"')",",N'",C2, "',N'",I2, "',",J2,",",K2,", (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'",F2,"' AND stgTable.SchemaName = N'",D2,"' AND stgTable.TableName = N'",E2,"'),","NULL)"),_xlfn.CONCAT("INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'",B2,"' AND SchemaName = N'",A2,"')",",N'",C2, "',N'",I2, "',",J2,",",K2,", (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'",F2,"' AND stgTable.SchemaName = N'",D2,"' AND stgTable.TableName = N'",E2,"'),","(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'",H2,"' AND SchemaName = N'",G2,"'))"))</f>
+        <v>INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'SalesOrderHeader' AND SchemaName = N'dwh'),N'SalesOrderID',N'int',0,1, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'SalesOrderID' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'SalesOrderHeader'),NULL)</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'SalesOrderHeader' AND SchemaName = N'dwh'),N'OrderDateID',N'int',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'OrderDate' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'SalesOrderHeader'),(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'Date' AND SchemaName = N'dwh'))</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>103</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'SalesOrderHeader' AND SchemaName = N'dwh'),N'DueDateID',N'int',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'DueDate' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'SalesOrderHeader'),(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'Date' AND SchemaName = N'dwh'))</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>104</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'SalesOrderHeader' AND SchemaName = N'dwh'),N'ShipDateID',N'int',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'ShipDate' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'SalesOrderHeader'),(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'Date' AND SchemaName = N'dwh'))</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'SalesOrderHeader' AND SchemaName = N'dwh'),N'SalesPersonID',N'int',1,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'SalesPersonID' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'SalesOrderHeader'),(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'SalesPerson' AND SchemaName = N'dwh'))</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>105</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'SalesOrderHeader' AND SchemaName = N'dwh'),N'BillAddressID',N'int',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'BillToAddressID' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'SalesOrderHeader'),(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'Address' AND SchemaName = N'dwh'))</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>106</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'SalesOrderHeader' AND SchemaName = N'dwh'),N'ShipAddressID',N'int',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'ShipToAddressID' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'SalesOrderHeader'),(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'Address' AND SchemaName = N'dwh'))</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'SalesOrderHeader' AND SchemaName = N'dwh'),N'SubTotal',N'money',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'SubTotal' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'SalesOrderHeader'),NULL)</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'SalesOrderHeader' AND SchemaName = N'dwh'),N'TaxAmt',N'money',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'TaxAmt' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'SalesOrderHeader'),NULL)</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>26</v>
-      </c>
-      <c r="B39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>26</v>
-      </c>
-      <c r="B41" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>26</v>
-      </c>
-      <c r="B43" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>26</v>
-      </c>
-      <c r="B46" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>26</v>
-      </c>
-      <c r="B47" t="s">
-        <v>39</v>
-      </c>
-      <c r="C47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>26</v>
-      </c>
-      <c r="B48" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>26</v>
-      </c>
-      <c r="B49" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>26</v>
-      </c>
-      <c r="B50" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>26</v>
-      </c>
-      <c r="B51" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>26</v>
-      </c>
-      <c r="B52" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>26</v>
-      </c>
-      <c r="B53" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>26</v>
-      </c>
-      <c r="B54" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>26</v>
-      </c>
-      <c r="B55" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>26</v>
-      </c>
-      <c r="B56" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>26</v>
-      </c>
-      <c r="B57" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>26</v>
-      </c>
-      <c r="B58" t="s">
-        <v>40</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>26</v>
-      </c>
-      <c r="B59" t="s">
-        <v>40</v>
-      </c>
-      <c r="C59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>26</v>
-      </c>
-      <c r="B60" t="s">
-        <v>40</v>
-      </c>
-      <c r="C60" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>26</v>
-      </c>
-      <c r="B61" t="s">
-        <v>40</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B62" t="s">
-        <v>40</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B63" t="s">
-        <v>40</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>26</v>
-      </c>
-      <c r="B64" t="s">
-        <v>41</v>
-      </c>
-      <c r="C64" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>26</v>
-      </c>
-      <c r="B65" t="s">
-        <v>41</v>
-      </c>
-      <c r="C65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>26</v>
-      </c>
-      <c r="B66" t="s">
-        <v>41</v>
-      </c>
-      <c r="C66" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>26</v>
-      </c>
-      <c r="B67" t="s">
-        <v>41</v>
-      </c>
-      <c r="C67" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>26</v>
-      </c>
-      <c r="B68" t="s">
-        <v>41</v>
-      </c>
-      <c r="C68" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>26</v>
-      </c>
-      <c r="B69" t="s">
-        <v>41</v>
-      </c>
-      <c r="C69" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>26</v>
-      </c>
-      <c r="B70" t="s">
-        <v>41</v>
-      </c>
-      <c r="C70" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>26</v>
-      </c>
-      <c r="B71" t="s">
-        <v>41</v>
-      </c>
-      <c r="C71" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>26</v>
-      </c>
-      <c r="B72" t="s">
-        <v>41</v>
-      </c>
-      <c r="C72" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>26</v>
-      </c>
-      <c r="B73" t="s">
-        <v>41</v>
-      </c>
-      <c r="C73" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>26</v>
-      </c>
-      <c r="B74" t="s">
-        <v>41</v>
-      </c>
-      <c r="C74" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>26</v>
-      </c>
-      <c r="B75" t="s">
-        <v>41</v>
-      </c>
-      <c r="C75" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>26</v>
-      </c>
-      <c r="B76" t="s">
-        <v>42</v>
-      </c>
-      <c r="C76" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>26</v>
-      </c>
-      <c r="B77" t="s">
-        <v>42</v>
-      </c>
-      <c r="C77" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>26</v>
-      </c>
-      <c r="B78" t="s">
-        <v>42</v>
-      </c>
-      <c r="C78" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>26</v>
-      </c>
-      <c r="B79" t="s">
-        <v>42</v>
-      </c>
-      <c r="C79" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>26</v>
-      </c>
-      <c r="B80" t="s">
-        <v>42</v>
-      </c>
-      <c r="C80" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>26</v>
-      </c>
-      <c r="B81" t="s">
-        <v>42</v>
-      </c>
-      <c r="C81" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>26</v>
-      </c>
-      <c r="B82" t="s">
-        <v>42</v>
-      </c>
-      <c r="C82" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>26</v>
-      </c>
-      <c r="B83" t="s">
-        <v>42</v>
-      </c>
-      <c r="C83" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>26</v>
-      </c>
-      <c r="B84" t="s">
-        <v>42</v>
-      </c>
-      <c r="C84" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>26</v>
-      </c>
-      <c r="B85" t="s">
-        <v>42</v>
-      </c>
-      <c r="C85" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>26</v>
-      </c>
-      <c r="B86" t="s">
-        <v>42</v>
-      </c>
-      <c r="C86" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>26</v>
-      </c>
-      <c r="B87" t="s">
-        <v>42</v>
-      </c>
-      <c r="C87" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>26</v>
-      </c>
-      <c r="B88" t="s">
-        <v>42</v>
-      </c>
-      <c r="C88" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>26</v>
-      </c>
-      <c r="B89" t="s">
-        <v>42</v>
-      </c>
-      <c r="C89" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>26</v>
-      </c>
-      <c r="B90" t="s">
-        <v>42</v>
-      </c>
-      <c r="C90" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>26</v>
-      </c>
-      <c r="B91" t="s">
-        <v>42</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>26</v>
-      </c>
-      <c r="B92" t="s">
-        <v>42</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>26</v>
-      </c>
-      <c r="B93" t="s">
-        <v>42</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>26</v>
-      </c>
-      <c r="B94" t="s">
-        <v>42</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>26</v>
-      </c>
-      <c r="B95" t="s">
-        <v>42</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'SalesOrderHeader' AND SchemaName = N'dwh'),N'Freight',N'money',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'Freight' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'SalesOrderHeader'),NULL)</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="6"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="6"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="6"/>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="6"/>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C91" s="7"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C92" s="7"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C93" s="7"/>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C94" s="7"/>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C95" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5824,10 +5197,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260AFB97-602A-4405-A440-71F52C0C6415}">
+  <sheetPr>
+    <tabColor theme="6" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5852,28 +5228,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
       <c r="D1" t="s">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="E1" t="s">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c r="F1" t="s">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c r="G1" t="s">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="H1" t="s">
-        <v>161</v>
+        <v>84</v>
       </c>
       <c r="I1" t="s">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c r="J1" t="s">
-        <v>173</v>
+        <v>96</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
@@ -5881,10 +5257,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C2" t="str">
         <f>_xlfn.CONCAT(DWHMapping!A2,".",DWHMapping!B2)</f>

--- a/AzureDWHFramework/AzureDWHFrameworkDataInput/DataInput.xlsx
+++ b/AzureDWHFramework/AzureDWHFrameworkDataInput/DataInput.xlsx
@@ -5,30 +5,31 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\source\repos\AzureDWHFramework\AzureDWHFramework\AzureDWHFrameworkDataInput\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\source\repos\AzureDWHframework\AzureDWHFramework\AzureDWHFrameworkDataInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0A6C3E-320F-448A-8D26-A6D75A35415C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93935C5-7FA6-43A9-8462-C28CB0FA5915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Business Area" sheetId="12" r:id="rId1"/>
-    <sheet name="StageTable" sheetId="1" r:id="rId2"/>
-    <sheet name="StageTableColumn" sheetId="2" r:id="rId3"/>
-    <sheet name="StageMapping" sheetId="11" r:id="rId4"/>
-    <sheet name="DimTable" sheetId="7" r:id="rId5"/>
-    <sheet name="DimTableColumn" sheetId="8" r:id="rId6"/>
-    <sheet name="FactTable" sheetId="9" r:id="rId7"/>
-    <sheet name="FactTableColumn" sheetId="10" r:id="rId8"/>
-    <sheet name="DWHMapping" sheetId="14" r:id="rId9"/>
-    <sheet name="HiddenSheet" sheetId="13" r:id="rId10"/>
+    <sheet name="Business Area" sheetId="15" r:id="rId1"/>
+    <sheet name="Tabular Model" sheetId="12" r:id="rId2"/>
+    <sheet name="StageTable" sheetId="1" r:id="rId3"/>
+    <sheet name="StageTableColumn" sheetId="2" r:id="rId4"/>
+    <sheet name="StageMapping" sheetId="11" r:id="rId5"/>
+    <sheet name="DimTable" sheetId="7" r:id="rId6"/>
+    <sheet name="DimTableColumn" sheetId="8" r:id="rId7"/>
+    <sheet name="FactTable" sheetId="9" r:id="rId8"/>
+    <sheet name="FactTableColumn" sheetId="10" r:id="rId9"/>
+    <sheet name="DWHMapping" sheetId="14" r:id="rId10"/>
+    <sheet name="HiddenSheet" sheetId="13" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">DimTableColumn!$A$1:$I$79</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">StageMapping!$A$1:$L$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">StageTable!$A$1:$C$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">StageTableColumn!$A$1:$F$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">DimTableColumn!$A$1:$I$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">StageMapping!$A$1:$L$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">StageTable!$A$1:$C$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">StageTableColumn!$A$1:$F$31</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -58,9 +59,9 @@
   <commentList>
     <comment ref="C1" authorId="0" shapeId="0" xr:uid="{A97A3F6D-258A-47C2-A556-02F0EA8396ED}">
       <text>
-        <t xml:space="preserve">[Komentář ve vlákně]
-Vaše verze aplikace Excel vám umožňuje číst tento komentář ve vlákně, ale jakékoli jeho úpravy se odeberou, pokud se soubor otevře v novější verzi aplikace Excel. Další informace: https://go.microsoft.com/fwlink/?linkid=870924
-Komentář:
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     SCD1 or SCD2
 </t>
       </text>
@@ -77,9 +78,9 @@
   <commentList>
     <comment ref="C1" authorId="0" shapeId="0" xr:uid="{F6EABC82-789E-47F4-973F-9396278280B8}">
       <text>
-        <t>[Komentář ve vlákně]
-Vaše verze aplikace Excel vám umožňuje číst tento komentář ve vlákně, ale jakékoli jeho úpravy se odeberou, pokud se soubor otevře v novější verzi aplikace Excel. Další informace: https://go.microsoft.com/fwlink/?linkid=870924
-Komentář:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Full or Increment</t>
       </text>
     </comment>
@@ -96,17 +97,17 @@
   <commentList>
     <comment ref="G1" authorId="0" shapeId="0" xr:uid="{B7616948-429F-462A-BE7D-FEF744E778FA}">
       <text>
-        <t>[Komentář ve vlákně]
-Vaše verze aplikace Excel vám umožňuje číst tento komentář ve vlákně, ale jakékoli jeho úpravy se odeberou, pokud se soubor otevře v novější verzi aplikace Excel. Další informace: https://go.microsoft.com/fwlink/?linkid=870924
-Komentář:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Leave blank when column is not referencing to dimension</t>
       </text>
     </comment>
     <comment ref="H1" authorId="1" shapeId="0" xr:uid="{322A949E-A72E-425E-8252-7370C9F16B86}">
       <text>
-        <t>[Komentář ve vlákně]
-Vaše verze aplikace Excel vám umožňuje číst tento komentář ve vlákně, ale jakékoli jeho úpravy se odeberou, pokud se soubor otevře v novější verzi aplikace Excel. Další informace: https://go.microsoft.com/fwlink/?linkid=870924
-Komentář:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Leave blank when column is not referencing to dimension</t>
       </text>
     </comment>
@@ -115,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="114">
   <si>
     <t>SchemaName</t>
   </si>
@@ -408,9 +409,6 @@
     <t>Layer</t>
   </si>
   <si>
-    <t>FullTableName</t>
-  </si>
-  <si>
     <t>LoadingprocedureName</t>
   </si>
   <si>
@@ -448,6 +446,18 @@
   </si>
   <si>
     <t>datetime2(7)</t>
+  </si>
+  <si>
+    <t>TabularModels</t>
+  </si>
+  <si>
+    <t>TabularModelName</t>
+  </si>
+  <si>
+    <t>AAS_Sales</t>
+  </si>
+  <si>
+    <t>AAS_Purchasing</t>
   </si>
 </sst>
 </file>
@@ -542,7 +552,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -853,14 +863,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5874FF1C-0D7F-4AF9-8572-6A1FCFF9ACA7}">
-  <sheetPr codeName="Sheet2">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A80E3CC-37F2-415E-A69A-C6A0818826D9}">
+  <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,6 +946,118 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260AFB97-602A-4405-A440-71F52C0C6415}">
+  <sheetPr>
+    <tabColor theme="6" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="227.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" t="str">
+        <f>_xlfn.CONCAT(A2,".p_Load_",IF(C2="Dimension","D_","F_"),B2)</f>
+        <v>dwh.p_Load_D_CarDeal</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="str">
+        <f xml:space="preserve"> IF(C2 = "Dimension",_xlfn.CONCAT("INSERT INTO etl.DwhMapping(LoadingProcedureName, DimensionTableID, FactTableID, Active,Layer) VALUES (N'",D2,"',(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'",B2,"' AND SchemaName = N'",A2,"')",", NULL,",E2, ",",F2, ")"),_xlfn.CONCAT("INSERT INTO etl.DwhMapping(LoadingProcedureName, FactTableID, DimensionTableID, Active,Layer) VALUES (N'",D2,"',(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'",B2,"' AND SchemaName = N'",A2,"')",", NULL,",E2, ",",F2, ")"))</f>
+        <v>INSERT INTO etl.DwhMapping(LoadingProcedureName, DimensionTableID, FactTableID, Active,Layer) VALUES (N'dwh.p_Load_D_CarDeal',(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'CarDeal' AND SchemaName = N'dwh'), NULL,1,1)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" t="str">
+        <f>_xlfn.CONCAT(A3,".p_Load_",IF(C3="Dimension","D_","F_"),B3)</f>
+        <v>dwh.p_Load_F_CarDeal</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="str">
+        <f xml:space="preserve"> IF(C3 = "Dimension",_xlfn.CONCAT("INSERT INTO etl.DwhMapping(LoadingProcedureName, DimensionTableID, FactTableID, Active,Layer) VALUES (N'",D3,"',(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'",B3,"' AND SchemaName = N'",A3,"')",", NULL,",E3, ",",F3, ")"),_xlfn.CONCAT("INSERT INTO etl.DwhMapping(LoadingProcedureName, FactTableID, DimensionTableID, Active,Layer) VALUES (N'",D3,"',(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'",B3,"' AND SchemaName = N'",A3,"')",", NULL,",E3, ",",F3, ")"))</f>
+        <v>INSERT INTO etl.DwhMapping(LoadingProcedureName, FactTableID, DimensionTableID, Active,Layer) VALUES (N'dwh.p_Load_F_CarDeal',(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'CarDeal' AND SchemaName = N'dwh'), NULL,1,1)</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{27021C45-3952-48BE-A482-1EE186556E02}">
+          <x14:formula1>
+            <xm:f>HiddenSheet!$C$6:$C$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497ED895-4832-4904-ADD0-227404C1733E}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="C3:C7"/>
@@ -953,12 +1075,12 @@
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -967,6 +1089,74 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5874FF1C-0D7F-4AF9-8572-6A1FCFF9ACA7}">
+  <sheetPr codeName="Sheet2">
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="134.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.TabularModel(TabularModelName, Description, BusinessAreas) VALUES ('",A2,"',N'",B2,"',N'",C2,"')")</f>
+        <v>INSERT INTO conf.TabularModel(TabularModelName, Description, BusinessAreas) VALUES ('AAS_Sales',N'Lidské zdroje',N'Sales')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E5" si="0" xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.TabularModel(TabularModelName, Description, BusinessAreas) VALUES ('",A3,"',N'",B3,"',N'",C3,"')")</f>
+        <v>INSERT INTO conf.TabularModel(TabularModelName, Description, BusinessAreas) VALUES ('AAS_Purchasing',N'Osoby',N'Purchasing')</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF4472C4"/>
@@ -1106,7 +1296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A62E405-D7A5-4E90-BFDB-0C0D8A35C057}">
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF4472C4"/>
@@ -3814,7 +4004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3814CC27-2922-4E59-A0B2-A859ABEBB4B3}">
   <sheetPr codeName="Sheet5">
     <tabColor theme="8"/>
@@ -4023,15 +4213,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8409EB-2D2C-432D-81BA-E57B4146C664}">
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4040,11 +4230,12 @@
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="119.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="119.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4058,13 +4249,16 @@
         <v>76</v>
       </c>
       <c r="E1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" t="s">
         <v>63</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4077,12 +4271,12 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.DimensionTable(SchemaName, TableName, Loadtype, BusinessAreas, Description) VALUES (N'",A2,"',N'",B2,"',N'",C2,"',N'",D2,"',N'",E2,"')")</f>
-        <v>INSERT INTO conf.DimensionTable(SchemaName, TableName, Loadtype, BusinessAreas, Description) VALUES (N'dwh',N'SalesPerson',N'SCD1',N'Sales',N'')</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.DimensionTable(SchemaName, TableName, Loadtype, BusinessAreas, Description,TabularModels) VALUES (N'",A2,"',N'",B2,"',N'",C2,"',N'",D2,"',N'",F2,"',N'",E2,"')")</f>
+        <v>INSERT INTO conf.DimensionTable(SchemaName, TableName, Loadtype, BusinessAreas, Description,TabularModels) VALUES (N'dwh',N'SalesPerson',N'SCD1',N'Sales',N'',N'')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -4090,17 +4284,17 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.DimensionTable(SchemaName, TableName, Loadtype, BusinessAreas, Description) VALUES (N'",A3,"',N'",B3,"',N'",C3,"',N'",D3,"',N'",E3,"')")</f>
-        <v>INSERT INTO conf.DimensionTable(SchemaName, TableName, Loadtype, BusinessAreas, Description) VALUES (N'dwh',N'Employee',N'SCD2',N'Sales',N'')</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H5" si="0" xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.DimensionTable(SchemaName, TableName, Loadtype, BusinessAreas, Description,TabularModels) VALUES (N'",A3,"',N'",B3,"',N'",C3,"',N'",D3,"',N'",F3,"',N'",E3,"')")</f>
+        <v>INSERT INTO conf.DimensionTable(SchemaName, TableName, Loadtype, BusinessAreas, Description,TabularModels) VALUES (N'dwh',N'Employee',N'SCD2',N'Sales',N'',N'')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -4113,17 +4307,17 @@
       <c r="D4" t="s">
         <v>77</v>
       </c>
-      <c r="G4" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.DimensionTable(SchemaName, TableName, Loadtype, BusinessAreas, Description) VALUES (N'",A4,"',N'",B4,"',N'",C4,"',N'",D4,"',N'",E4,"')")</f>
-        <v>INSERT INTO conf.DimensionTable(SchemaName, TableName, Loadtype, BusinessAreas, Description) VALUES (N'dwh',N'Address',N'SCD1',N'HumanResources, Person',N'')</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.DimensionTable(SchemaName, TableName, Loadtype, BusinessAreas, Description,TabularModels) VALUES (N'dwh',N'Address',N'SCD1',N'HumanResources, Person',N'',N'')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -4131,9 +4325,9 @@
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.DimensionTable(SchemaName, TableName, Loadtype, BusinessAreas, Description) VALUES (N'",A5,"',N'",B5,"',N'",C5,"',N'",D5,"',N'",E5,"')")</f>
-        <v>INSERT INTO conf.DimensionTable(SchemaName, TableName, Loadtype, BusinessAreas, Description) VALUES (N'dwh',N'Date',N'SCD1',N'Sales',N'')</v>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.DimensionTable(SchemaName, TableName, Loadtype, BusinessAreas, Description,TabularModels) VALUES (N'dwh',N'Date',N'SCD1',N'Sales',N'',N'')</v>
       </c>
     </row>
   </sheetData>
@@ -4143,15 +4337,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E7B4BB0-CEF4-49D3-8D25-23DCC1D7C5CD}">
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4395,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" ref="L7:L19" si="1">_xlfn.CONCAT("INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName,Description, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'",B7,"' AND SchemaName = N'",A7,"')",",N'",C7, "',N'",J7, "',N'",G7, "',",H7,",",I7,", (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'",F7,"' AND stgTable.SchemaName = N'",D7,"' AND stgTable.TableName = N'",E7,"'))")</f>
+        <f t="shared" ref="L7:L14" si="1">_xlfn.CONCAT("INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName,Description, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'",B7,"' AND SchemaName = N'",A7,"')",",N'",C7, "',N'",J7, "',N'",G7, "',",H7,",",I7,", (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'",F7,"' AND stgTable.SchemaName = N'",D7,"' AND stgTable.TableName = N'",E7,"'))")</f>
         <v>INSERT INTO conf.DimensionTableColumn(DimensionTableID, ColumnName,Description, DataType, Nullable, BusinessKey, StageTableColumnID) VALUES ( (SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'Employee' AND SchemaName = N'dwh'),N'LoginID',N'',N'nvarchar(256)',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'LoginID' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'Employee'))</v>
       </c>
     </row>
@@ -4452,7 +4646,7 @@
         <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -4485,7 +4679,7 @@
         <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -4506,7 +4700,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
@@ -4635,13 +4829,13 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -4675,15 +4869,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51644266-7B81-49A9-87EE-3E210C91CDFC}">
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF70AD47"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4691,10 +4885,11 @@
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="91.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="7" max="7" width="91.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4707,11 +4902,14 @@
       <c r="D1" t="s">
         <v>76</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4724,9 +4922,9 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.FactTable(SchemaName, TableName, LoadType,BusinessAreas) VALUES (N'",A2,"',N'",B2,"',N'",C2,"',N'",D2,"')")</f>
-        <v>INSERT INTO conf.FactTable(SchemaName, TableName, LoadType,BusinessAreas) VALUES (N'dwh',N'SalesOrderHeader',N'Full',N'Sales')</v>
+      <c r="G2" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.FactTable(SchemaName, TableName, LoadType,BusinessAreas,TabularModels) VALUES (N'",A2,"',N'",B2,"',N'",C2,"',N'",D2,"',N'",E2,"')")</f>
+        <v>INSERT INTO conf.FactTable(SchemaName, TableName, LoadType,BusinessAreas,TabularModels) VALUES (N'dwh',N'SalesOrderHeader',N'Full',N'Sales',N'')</v>
       </c>
     </row>
   </sheetData>
@@ -4735,16 +4933,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA91119-AB45-4CBF-AA80-7952E2D33F3A}">
   <sheetPr codeName="Sheet9">
     <tabColor rgb="FF70AD47"/>
   </sheetPr>
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4836,7 +5034,7 @@
         <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
         <v>30</v>
@@ -4851,7 +5049,7 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I3" t="s">
         <v>8</v>
@@ -4875,7 +5073,7 @@
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
         <v>30</v>
@@ -4890,7 +5088,7 @@
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I4" t="s">
         <v>8</v>
@@ -4902,7 +5100,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(G4),_xlfn.CONCAT("INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'",B4,"' AND SchemaName = N'",A4,"')",",N'",C4, "',N'",I4, "',",J4,",",K4,", (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'",F4,"' AND stgTable.SchemaName = N'",D4,"' AND stgTable.TableName = N'",E4,"'),","NULL)"),_xlfn.CONCAT("INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'",B4,"' AND SchemaName = N'",A4,"')",",N'",C4, "',N'",I4, "',",J4,",",K4,", (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'",F4,"' AND stgTable.SchemaName = N'",D4,"' AND stgTable.TableName = N'",E4,"'),","(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'",H4,"' AND SchemaName = N'",G4,"'))"))</f>
         <v>INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'SalesOrderHeader' AND SchemaName = N'dwh'),N'DueDateID',N'int',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'DueDate' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'SalesOrderHeader'),(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'Date' AND SchemaName = N'dwh'))</v>
       </c>
     </row>
@@ -4914,7 +5112,7 @@
         <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
         <v>30</v>
@@ -4929,7 +5127,7 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I5" t="s">
         <v>8</v>
@@ -4992,7 +5190,7 @@
         <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
@@ -5019,7 +5217,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(G7),_xlfn.CONCAT("INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'",B7,"' AND SchemaName = N'",A7,"')",",N'",C7, "',N'",I7, "',",J7,",",K7,", (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'",F7,"' AND stgTable.SchemaName = N'",D7,"' AND stgTable.TableName = N'",E7,"'),","NULL)"),_xlfn.CONCAT("INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'",B7,"' AND SchemaName = N'",A7,"')",",N'",C7, "',N'",I7, "',",J7,",",K7,", (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'",F7,"' AND stgTable.SchemaName = N'",D7,"' AND stgTable.TableName = N'",E7,"'),","(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'",H7,"' AND SchemaName = N'",G7,"'))"))</f>
         <v>INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'SalesOrderHeader' AND SchemaName = N'dwh'),N'BillAddressID',N'int',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'BillToAddressID' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'SalesOrderHeader'),(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'Address' AND SchemaName = N'dwh'))</v>
       </c>
     </row>
@@ -5031,7 +5229,7 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
         <v>30</v>
@@ -5195,110 +5393,10 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260AFB97-602A-4405-A440-71F52C0C6415}">
-  <sheetPr>
-    <tabColor theme="6" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:L2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" customWidth="1"/>
-    <col min="12" max="12" width="207.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J1" t="s">
-        <v>96</v>
-      </c>
-      <c r="L1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="str">
-        <f>_xlfn.CONCAT(DWHMapping!A2,".",DWHMapping!B2)</f>
-        <v>dwh.CarDeal</v>
-      </c>
-      <c r="E2" t="str">
-        <f>_xlfn.CONCAT(A2,".p_Load_",IF(D2="Dimension","D_","F_"),B2)</f>
-        <v>dwh.p_Load_F_CarDeal</v>
-      </c>
-      <c r="L2" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("INSERT INTO etl.DwhMapping(TableName, LoadingProcedureName, DeleteCondition,IncrementCondition, LoadWithIncrement, TableType, Active,Layer) VALUES (N'",C2,"',N'",E2,"',N'",F2,"',N'",G2,"'',N'",H2,"'',N'",D2,"'',N'",I2,"'',N'",J2,"')")</f>
-        <v>INSERT INTO etl.DwhMapping(TableName, LoadingProcedureName, DeleteCondition,IncrementCondition, LoadWithIncrement, TableType, Active,Layer) VALUES (N'dwh.CarDeal',N'dwh.p_Load_F_CarDeal',N'',N''',N''',N''',N''',N'')</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CEED3B15-190D-4F52-A879-97C52F798BAD}">
-          <x14:formula1>
-            <xm:f>HiddenSheet!C6:C7</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5467,15 +5565,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECF01738-4FB6-4420-ACD5-05F4ADA23550}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C35E53F-2B8C-4469-8C9B-1A3659EAE88B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5500,10 +5602,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C35E53F-2B8C-4469-8C9B-1A3659EAE88B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECF01738-4FB6-4420-ACD5-05F4ADA23550}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/AzureDWHFramework/AzureDWHFrameworkDataInput/DataInput.xlsx
+++ b/AzureDWHFramework/AzureDWHFrameworkDataInput/DataInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\source\repos\AzureDWHframework\AzureDWHFramework\AzureDWHFrameworkDataInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93935C5-7FA6-43A9-8462-C28CB0FA5915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC10353-330C-477E-8C13-FF4CEA4383F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="113">
   <si>
     <t>SchemaName</t>
   </si>
@@ -176,9 +176,6 @@
   </si>
   <si>
     <t>Business Key</t>
-  </si>
-  <si>
-    <t>CarDeal</t>
   </si>
   <si>
     <t>Full</t>
@@ -883,10 +880,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -894,10 +891,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.BusinessArea(BusinessAreaName, Description) VALUES ('",A2,"',N'",B2,"')")</f>
@@ -906,10 +903,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D5" si="0" xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.BusinessArea(BusinessAreaName, Description) VALUES ('",A3,"',N'",B3,"')")</f>
@@ -921,7 +918,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -930,10 +927,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -953,7 +950,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,16 +972,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" t="s">
         <v>95</v>
-      </c>
-      <c r="D1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" t="s">
-        <v>96</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -995,14 +992,14 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" t="str">
         <f>_xlfn.CONCAT(A2,".p_Load_",IF(C2="Dimension","D_","F_"),B2)</f>
-        <v>dwh.p_Load_D_CarDeal</v>
+        <v>dwh.p_Load_D_SalesPerson</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1011,8 +1008,8 @@
         <v>1</v>
       </c>
       <c r="H2" t="str">
-        <f xml:space="preserve"> IF(C2 = "Dimension",_xlfn.CONCAT("INSERT INTO etl.DwhMapping(LoadingProcedureName, DimensionTableID, FactTableID, Active,Layer) VALUES (N'",D2,"',(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'",B2,"' AND SchemaName = N'",A2,"')",", NULL,",E2, ",",F2, ")"),_xlfn.CONCAT("INSERT INTO etl.DwhMapping(LoadingProcedureName, FactTableID, DimensionTableID, Active,Layer) VALUES (N'",D2,"',(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'",B2,"' AND SchemaName = N'",A2,"')",", NULL,",E2, ",",F2, ")"))</f>
-        <v>INSERT INTO etl.DwhMapping(LoadingProcedureName, DimensionTableID, FactTableID, Active,Layer) VALUES (N'dwh.p_Load_D_CarDeal',(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'CarDeal' AND SchemaName = N'dwh'), NULL,1,1)</v>
+        <f xml:space="preserve"> IF(C2 = "Dimension",_xlfn.CONCAT("INSERT INTO etl.DwhMapping(LoadingProcedureName, DimensionTableID, FactTableID, Active,Layer) VALUES (N'",D2,"',(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'",B2,"' AND SchemaName = N'",A2,"')",", NULL,",E2, ",",F2, ")"),_xlfn.CONCAT("INSERT INTO etl.DwhMapping(LoadingProcedureName, FactTableID, DimensionTableID, Active,Layer) VALUES (N'",D2,"',(SELECT FactTableID FROM conf.FactTable WHERE TableName = N'",B2,"' AND SchemaName = N'",A2,"')",", NULL,",E2, ",",F2, ")"))</f>
+        <v>INSERT INTO etl.DwhMapping(LoadingProcedureName, DimensionTableID, FactTableID, Active,Layer) VALUES (N'dwh.p_Load_D_SalesPerson',(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'SalesPerson' AND SchemaName = N'dwh'), NULL,1,1)</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1020,14 +1017,14 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" t="str">
         <f>_xlfn.CONCAT(A3,".p_Load_",IF(C3="Dimension","D_","F_"),B3)</f>
-        <v>dwh.p_Load_F_CarDeal</v>
+        <v>dwh.p_Load_F_SalesOrderHeader</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1036,15 +1033,15 @@
         <v>1</v>
       </c>
       <c r="H3" t="str">
-        <f xml:space="preserve"> IF(C3 = "Dimension",_xlfn.CONCAT("INSERT INTO etl.DwhMapping(LoadingProcedureName, DimensionTableID, FactTableID, Active,Layer) VALUES (N'",D3,"',(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'",B3,"' AND SchemaName = N'",A3,"')",", NULL,",E3, ",",F3, ")"),_xlfn.CONCAT("INSERT INTO etl.DwhMapping(LoadingProcedureName, FactTableID, DimensionTableID, Active,Layer) VALUES (N'",D3,"',(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'",B3,"' AND SchemaName = N'",A3,"')",", NULL,",E3, ",",F3, ")"))</f>
-        <v>INSERT INTO etl.DwhMapping(LoadingProcedureName, FactTableID, DimensionTableID, Active,Layer) VALUES (N'dwh.p_Load_F_CarDeal',(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'CarDeal' AND SchemaName = N'dwh'), NULL,1,1)</v>
+        <f xml:space="preserve"> IF(C3 = "Dimension",_xlfn.CONCAT("INSERT INTO etl.DwhMapping(LoadingProcedureName, DimensionTableID, FactTableID, Active,Layer) VALUES (N'",D3,"',(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'",B3,"' AND SchemaName = N'",A3,"')",", NULL,",E3, ",",F3, ")"),_xlfn.CONCAT("INSERT INTO etl.DwhMapping(LoadingProcedureName, FactTableID, DimensionTableID, Active,Layer) VALUES (N'",D3,"',(SELECT FactTableID FROM conf.FactTable WHERE TableName = N'",B3,"' AND SchemaName = N'",A3,"')",", NULL,",E3, ",",F3, ")"))</f>
+        <v>INSERT INTO etl.DwhMapping(LoadingProcedureName, FactTableID, DimensionTableID, Active,Layer) VALUES (N'dwh.p_Load_F_SalesOrderHeader',(SELECT FactTableID FROM conf.FactTable WHERE TableName = N'SalesOrderHeader' AND SchemaName = N'dwh'), NULL,1,1)</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{27021C45-3952-48BE-A482-1EE186556E02}">
           <x14:formula1>
             <xm:f>HiddenSheet!$C$6:$C$7</xm:f>
@@ -1070,17 +1067,17 @@
   <sheetData>
     <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1109,13 +1106,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1123,10 +1120,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -1138,13 +1135,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E5" si="0" xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.TabularModel(TabularModelName, Description, BusinessAreas) VALUES ('",A3,"',N'",B3,"',N'",C3,"')")</f>
@@ -1185,10 +1182,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -1196,16 +1193,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.StageTable(SchemaName, TableName, Description, BusinessAreas) VALUES ('",A2,"','",B2,"',N'",C2,"',N'",D2,"')")</f>
@@ -1214,16 +1211,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F6" si="0" xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.StageTable(SchemaName, TableName, Description, BusinessAreas) VALUES ('",A3,"','",B3,"',N'",C3,"',N'",D3,"')")</f>
@@ -1232,13 +1229,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -1250,13 +1247,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -1268,16 +1265,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
@@ -1336,7 +1333,7 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -1344,13 +1341,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -1365,13 +1362,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -1386,13 +1383,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -1407,13 +1404,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -1428,13 +1425,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -1449,16 +1446,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
       <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
         <v>40</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1470,16 +1467,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
       <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
         <v>42</v>
-      </c>
-      <c r="D8" t="s">
-        <v>43</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1491,16 +1488,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1512,16 +1509,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
       <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
         <v>45</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1533,13 +1530,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -1554,16 +1551,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
         <v>47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>48</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1575,16 +1572,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
         <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>51</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1596,16 +1593,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1617,13 +1614,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -1638,16 +1635,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1659,16 +1656,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1680,16 +1677,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1701,13 +1698,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -1722,13 +1719,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
@@ -1743,13 +1740,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
@@ -1764,16 +1761,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1785,16 +1782,16 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1806,16 +1803,16 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1827,13 +1824,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
@@ -1848,16 +1845,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1869,16 +1866,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1890,13 +1887,13 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
@@ -1911,16 +1908,16 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1932,16 +1929,16 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1953,16 +1950,16 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -4031,13 +4028,13 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
         <v>79</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>80</v>
-      </c>
-      <c r="C1" t="s">
-        <v>81</v>
       </c>
       <c r="D1" t="s">
         <v>16</v>
@@ -4046,25 +4043,25 @@
         <v>17</v>
       </c>
       <c r="F1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" t="s">
         <v>82</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>83</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>84</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>85</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>86</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>87</v>
-      </c>
-      <c r="L1" t="s">
-        <v>88</v>
       </c>
       <c r="N1" t="s">
         <v>2</v>
@@ -4072,19 +4069,19 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
         <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -4099,19 +4096,19 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -4126,19 +4123,19 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -4153,22 +4150,22 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -4183,19 +4180,19 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -4221,7 +4218,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4246,13 +4243,13 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -4263,7 +4260,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -4281,10 +4278,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -4299,13 +4296,13 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
@@ -4317,7 +4314,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -4389,7 +4386,7 @@
         <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
@@ -4400,19 +4397,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -4433,22 +4430,22 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
         <v>47</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" t="s">
-        <v>48</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -4466,22 +4463,22 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
         <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" t="s">
-        <v>51</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -4499,22 +4496,22 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -4532,19 +4529,19 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
         <v>8</v>
@@ -4565,22 +4562,22 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
         <v>40</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" t="s">
-        <v>41</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -4598,22 +4595,22 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
         <v>42</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" t="s">
-        <v>43</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4631,22 +4628,22 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -4664,22 +4661,22 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
         <v>30</v>
       </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -4697,19 +4694,19 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
         <v>6</v>
@@ -4730,19 +4727,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
         <v>6</v>
@@ -4763,19 +4760,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
         <v>6</v>
@@ -4796,19 +4793,19 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
         <v>6</v>
@@ -4829,13 +4826,13 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -4877,7 +4874,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4900,10 +4897,10 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -4914,10 +4911,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -4957,13 +4954,13 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
       </c>
       <c r="D1" t="s">
         <v>16</v>
@@ -4998,19 +4995,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I2" t="s">
         <v>8</v>
@@ -5031,25 +5028,25 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I3" t="s">
         <v>8</v>
@@ -5070,25 +5067,25 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I4" t="s">
         <v>8</v>
@@ -5109,25 +5106,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I5" t="s">
         <v>8</v>
@@ -5148,25 +5145,25 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s">
         <v>8</v>
@@ -5187,25 +5184,25 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I7" t="s">
         <v>8</v>
@@ -5226,25 +5223,25 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I8" t="s">
         <v>8</v>
@@ -5265,22 +5262,22 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -5298,22 +5295,22 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -5331,22 +5328,22 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J11">
         <v>0</v>

--- a/AzureDWHFramework/AzureDWHFrameworkDataInput/DataInput.xlsx
+++ b/AzureDWHFramework/AzureDWHFrameworkDataInput/DataInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\source\repos\AzureDWHframework\AzureDWHFramework\AzureDWHFrameworkDataInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC10353-330C-477E-8C13-FF4CEA4383F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F967076-10CA-4F85-9697-2092D1466080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -950,7 +950,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AzureDWHFramework/AzureDWHFrameworkDataInput/DataInput.xlsx
+++ b/AzureDWHFramework/AzureDWHFrameworkDataInput/DataInput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\source\repos\AzureDWHframework\AzureDWHFramework\AzureDWHFrameworkDataInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F967076-10CA-4F85-9697-2092D1466080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510775B1-4448-411B-8532-CE33F38F90F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Business Area" sheetId="15" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="113">
   <si>
     <t>SchemaName</t>
   </si>
@@ -949,7 +949,7 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -4009,7 +4009,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F1" sqref="F1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4871,10 +4871,10 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF70AD47"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4883,10 +4883,13 @@
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" customWidth="1"/>
-    <col min="7" max="7" width="91.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="91.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4902,11 +4905,20 @@
       <c r="E1" t="s">
         <v>109</v>
       </c>
+      <c r="F1" t="s">
+        <v>81</v>
+      </c>
       <c r="G1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4919,9 +4931,12 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.FactTable(SchemaName, TableName, LoadType,BusinessAreas,TabularModels) VALUES (N'",A2,"',N'",B2,"',N'",C2,"',N'",D2,"',N'",E2,"')")</f>
-        <v>INSERT INTO conf.FactTable(SchemaName, TableName, LoadType,BusinessAreas,TabularModels) VALUES (N'dwh',N'SalesOrderHeader',N'Full',N'Sales',N'')</v>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.FactTable(SchemaName, TableName, LoadType,BusinessAreas,TabularModels, DeleteCondition, IncrementCondition, LoadWithIncrement) VALUES (N'",A2,"',N'",B2,"',N'",C2,"',N'",D2,"',N'",E2,"',N'",F2,"',N'",G2,"',N'",H2,"')")</f>
+        <v>INSERT INTO conf.FactTable(SchemaName, TableName, LoadType,BusinessAreas,TabularModels, DeleteCondition, IncrementCondition, LoadWithIncrement) VALUES (N'dwh',N'SalesOrderHeader',N'Full',N'Sales',N'',N'',N'',N'0')</v>
       </c>
     </row>
   </sheetData>

--- a/AzureDWHFramework/AzureDWHFrameworkDataInput/DataInput.xlsx
+++ b/AzureDWHFramework/AzureDWHFrameworkDataInput/DataInput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\source\repos\AzureDWHframework\AzureDWHFramework\AzureDWHFrameworkDataInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510775B1-4448-411B-8532-CE33F38F90F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAF95A7-2920-4382-AC28-B558E559A283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Business Area" sheetId="15" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="114">
   <si>
     <t>SchemaName</t>
   </si>
@@ -455,6 +455,9 @@
   </si>
   <si>
     <t>AAS_Purchasing</t>
+  </si>
+  <si>
+    <t>MainRelationship</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1147,7 @@
         <v>70</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E5" si="0" xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.TabularModel(TabularModelName, Description, BusinessAreas) VALUES ('",A3,"',N'",B3,"',N'",C3,"')")</f>
+        <f t="shared" ref="E3" si="0" xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.TabularModel(TabularModelName, Description, BusinessAreas) VALUES ('",A3,"',N'",B3,"',N'",C3,"')")</f>
         <v>INSERT INTO conf.TabularModel(TabularModelName, Description, BusinessAreas) VALUES ('AAS_Purchasing',N'Osoby',N'Purchasing')</v>
       </c>
     </row>
@@ -4873,7 +4876,7 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -4950,11 +4953,11 @@
   <sheetPr codeName="Sheet9">
     <tabColor rgb="FF70AD47"/>
   </sheetPr>
-  <dimension ref="A1:M95"/>
+  <dimension ref="A1:O95"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4964,10 +4967,11 @@
     <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="15" max="15" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -5001,11 +5005,14 @@
       <c r="K1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" t="s">
+      <c r="L1" t="s">
+        <v>113</v>
+      </c>
+      <c r="O1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -5033,12 +5040,15 @@
       <c r="K2">
         <v>1</v>
       </c>
-      <c r="M2" t="str">
-        <f t="shared" ref="M2:M11" si="0">IF(ISBLANK(G2),_xlfn.CONCAT("INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'",B2,"' AND SchemaName = N'",A2,"')",",N'",C2, "',N'",I2, "',",J2,",",K2,", (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'",F2,"' AND stgTable.SchemaName = N'",D2,"' AND stgTable.TableName = N'",E2,"'),","NULL)"),_xlfn.CONCAT("INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'",B2,"' AND SchemaName = N'",A2,"')",",N'",C2, "',N'",I2, "',",J2,",",K2,", (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'",F2,"' AND stgTable.SchemaName = N'",D2,"' AND stgTable.TableName = N'",E2,"'),","(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'",H2,"' AND SchemaName = N'",G2,"'))"))</f>
-        <v>INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'SalesOrderHeader' AND SchemaName = N'dwh'),N'SalesOrderID',N'int',0,1, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'SalesOrderID' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'SalesOrderHeader'),NULL)</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="str">
+        <f>IF(ISBLANK(G2),_xlfn.CONCAT("INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID, MainRelationship) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'",B2,"' AND SchemaName = N'",A2,"')",",N'",C2, "',N'",I2, "',",J2,",",K2,", (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'",F2,"' AND stgTable.SchemaName = N'",D2,"' AND stgTable.TableName = N'",E2,"'),","NULL,","NULL)"),_xlfn.CONCAT("INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID, MainRelationship) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'",B2,"' AND SchemaName = N'",A2,"')",",N'",C2, "',N'",I2, "',",J2,",",K2,", (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'",F2,"' AND stgTable.SchemaName = N'",D2,"' AND stgTable.TableName = N'",E2,"'),","(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'",H2,"' AND SchemaName = N'",G2,"'),",J2,")"))</f>
+        <v>INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID, MainRelationship) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'SalesOrderHeader' AND SchemaName = N'dwh'),N'SalesOrderID',N'int',0,1, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'SalesOrderID' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'SalesOrderHeader'),NULL,NULL)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -5072,12 +5082,15 @@
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="M3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'SalesOrderHeader' AND SchemaName = N'dwh'),N'OrderDateID',N'int',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'OrderDate' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'SalesOrderHeader'),(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'Date' AND SchemaName = N'dwh'))</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" ref="O3:O11" si="0">IF(ISBLANK(G3),_xlfn.CONCAT("INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID, MainRelationship) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'",B3,"' AND SchemaName = N'",A3,"')",",N'",C3, "',N'",I3, "',",J3,",",K3,", (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'",F3,"' AND stgTable.SchemaName = N'",D3,"' AND stgTable.TableName = N'",E3,"'),","NULL,","NULL)"),_xlfn.CONCAT("INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID, MainRelationship) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'",B3,"' AND SchemaName = N'",A3,"')",",N'",C3, "',N'",I3, "',",J3,",",K3,", (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'",F3,"' AND stgTable.SchemaName = N'",D3,"' AND stgTable.TableName = N'",E3,"'),","(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'",H3,"' AND SchemaName = N'",G3,"'),",J3,")"))</f>
+        <v>INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID, MainRelationship) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'SalesOrderHeader' AND SchemaName = N'dwh'),N'OrderDateID',N'int',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'OrderDate' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'SalesOrderHeader'),(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'Date' AND SchemaName = N'dwh'),0)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -5111,12 +5124,15 @@
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="M4" t="str">
-        <f>IF(ISBLANK(G4),_xlfn.CONCAT("INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'",B4,"' AND SchemaName = N'",A4,"')",",N'",C4, "',N'",I4, "',",J4,",",K4,", (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'",F4,"' AND stgTable.SchemaName = N'",D4,"' AND stgTable.TableName = N'",E4,"'),","NULL)"),_xlfn.CONCAT("INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'",B4,"' AND SchemaName = N'",A4,"')",",N'",C4, "',N'",I4, "',",J4,",",K4,", (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'",F4,"' AND stgTable.SchemaName = N'",D4,"' AND stgTable.TableName = N'",E4,"'),","(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'",H4,"' AND SchemaName = N'",G4,"'))"))</f>
-        <v>INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'SalesOrderHeader' AND SchemaName = N'dwh'),N'DueDateID',N'int',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'DueDate' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'SalesOrderHeader'),(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'Date' AND SchemaName = N'dwh'))</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID, MainRelationship) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'SalesOrderHeader' AND SchemaName = N'dwh'),N'DueDateID',N'int',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'DueDate' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'SalesOrderHeader'),(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'Date' AND SchemaName = N'dwh'),0)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -5150,12 +5166,15 @@
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="M5" t="str">
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="O5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'SalesOrderHeader' AND SchemaName = N'dwh'),N'ShipDateID',N'int',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'ShipDate' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'SalesOrderHeader'),(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'Date' AND SchemaName = N'dwh'))</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID, MainRelationship) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'SalesOrderHeader' AND SchemaName = N'dwh'),N'ShipDateID',N'int',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'ShipDate' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'SalesOrderHeader'),(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'Date' AND SchemaName = N'dwh'),0)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -5189,12 +5208,15 @@
       <c r="K6">
         <v>0</v>
       </c>
-      <c r="M6" t="str">
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="O6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'SalesOrderHeader' AND SchemaName = N'dwh'),N'SalesPersonID',N'int',1,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'SalesPersonID' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'SalesOrderHeader'),(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'SalesPerson' AND SchemaName = N'dwh'))</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID, MainRelationship) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'SalesOrderHeader' AND SchemaName = N'dwh'),N'SalesPersonID',N'int',1,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'SalesPersonID' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'SalesOrderHeader'),(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'SalesPerson' AND SchemaName = N'dwh'),1)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -5228,12 +5250,15 @@
       <c r="K7">
         <v>0</v>
       </c>
-      <c r="M7" t="str">
-        <f>IF(ISBLANK(G7),_xlfn.CONCAT("INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'",B7,"' AND SchemaName = N'",A7,"')",",N'",C7, "',N'",I7, "',",J7,",",K7,", (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'",F7,"' AND stgTable.SchemaName = N'",D7,"' AND stgTable.TableName = N'",E7,"'),","NULL)"),_xlfn.CONCAT("INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'",B7,"' AND SchemaName = N'",A7,"')",",N'",C7, "',N'",I7, "',",J7,",",K7,", (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'",F7,"' AND stgTable.SchemaName = N'",D7,"' AND stgTable.TableName = N'",E7,"'),","(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'",H7,"' AND SchemaName = N'",G7,"'))"))</f>
-        <v>INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'SalesOrderHeader' AND SchemaName = N'dwh'),N'BillAddressID',N'int',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'BillToAddressID' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'SalesOrderHeader'),(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'Address' AND SchemaName = N'dwh'))</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID, MainRelationship) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'SalesOrderHeader' AND SchemaName = N'dwh'),N'BillAddressID',N'int',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'BillToAddressID' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'SalesOrderHeader'),(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'Address' AND SchemaName = N'dwh'),0)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -5267,12 +5292,15 @@
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="M8" t="str">
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="O8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'SalesOrderHeader' AND SchemaName = N'dwh'),N'ShipAddressID',N'int',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'ShipToAddressID' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'SalesOrderHeader'),(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'Address' AND SchemaName = N'dwh'))</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID, MainRelationship) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'SalesOrderHeader' AND SchemaName = N'dwh'),N'ShipAddressID',N'int',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'ShipToAddressID' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'SalesOrderHeader'),(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'Address' AND SchemaName = N'dwh'),0)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -5300,12 +5328,15 @@
       <c r="K9">
         <v>0</v>
       </c>
-      <c r="M9" t="str">
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="O9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'SalesOrderHeader' AND SchemaName = N'dwh'),N'SubTotal',N'money',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'SubTotal' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'SalesOrderHeader'),NULL)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID, MainRelationship) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'SalesOrderHeader' AND SchemaName = N'dwh'),N'SubTotal',N'money',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'SubTotal' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'SalesOrderHeader'),NULL,NULL)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -5333,12 +5364,15 @@
       <c r="K10">
         <v>0</v>
       </c>
-      <c r="M10" t="str">
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="O10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'SalesOrderHeader' AND SchemaName = N'dwh'),N'TaxAmt',N'money',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'TaxAmt' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'SalesOrderHeader'),NULL)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID, MainRelationship) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'SalesOrderHeader' AND SchemaName = N'dwh'),N'TaxAmt',N'money',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'TaxAmt' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'SalesOrderHeader'),NULL,NULL)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -5366,9 +5400,12 @@
       <c r="K11">
         <v>0</v>
       </c>
-      <c r="M11" t="str">
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'SalesOrderHeader' AND SchemaName = N'dwh'),N'Freight',N'money',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'Freight' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'SalesOrderHeader'),NULL)</v>
+        <v>INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID, MainRelationship) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'SalesOrderHeader' AND SchemaName = N'dwh'),N'Freight',N'money',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'Freight' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'SalesOrderHeader'),NULL,NULL)</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.25">
@@ -5406,9 +5443,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5577,19 +5617,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C35E53F-2B8C-4469-8C9B-1A3659EAE88B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECF01738-4FB6-4420-ACD5-05F4ADA23550}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5614,9 +5650,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECF01738-4FB6-4420-ACD5-05F4ADA23550}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C35E53F-2B8C-4469-8C9B-1A3659EAE88B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/AzureDWHFramework/AzureDWHFrameworkDataInput/DataInput.xlsx
+++ b/AzureDWHFramework/AzureDWHFrameworkDataInput/DataInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\source\repos\AzureDWHframework\AzureDWHFramework\AzureDWHFrameworkDataInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAF95A7-2920-4382-AC28-B558E559A283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA624C3-79CC-4F27-B861-32E1CD30CEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4957,7 +4957,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AzureDWHFramework/AzureDWHFrameworkDataInput/DataInput.xlsx
+++ b/AzureDWHFramework/AzureDWHFrameworkDataInput/DataInput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\source\repos\AzureDWHframework\AzureDWHFramework\AzureDWHFrameworkDataInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA624C3-79CC-4F27-B861-32E1CD30CEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6497715F-52C5-4D46-AC43-FCF800AAE4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Business Area" sheetId="15" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="114">
   <si>
     <t>SchemaName</t>
   </si>
@@ -950,10 +950,10 @@
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,16 +1040,37 @@
         <v>INSERT INTO etl.DwhMapping(LoadingProcedureName, FactTableID, DimensionTableID, Active,Layer) VALUES (N'dwh.p_Load_F_SalesOrderHeader',(SELECT FactTableID FROM conf.FactTable WHERE TableName = N'SalesOrderHeader' AND SchemaName = N'dwh'), NULL,1,1)</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="str">
+        <f>_xlfn.CONCAT(A4,".p_Load_",IF(C4="Dimension","D_","F_"),B4)</f>
+        <v>dwh.p_Load_D_Employee</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{27021C45-3952-48BE-A482-1EE186556E02}">
           <x14:formula1>
             <xm:f>HiddenSheet!$C$6:$C$7</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C3</xm:sqref>
+          <xm:sqref>C2:C4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4955,7 +4976,7 @@
   </sheetPr>
   <dimension ref="A1:O95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>

--- a/AzureDWHFramework/AzureDWHFrameworkDataInput/DataInput.xlsx
+++ b/AzureDWHFramework/AzureDWHFrameworkDataInput/DataInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\source\repos\AzureDWHframework\AzureDWHFramework\AzureDWHFrameworkDataInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6497715F-52C5-4D46-AC43-FCF800AAE4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475390E8-DF07-4831-B0A2-07955EEC2946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="114">
   <si>
     <t>SchemaName</t>
   </si>
@@ -950,10 +950,10 @@
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,6 +1060,35 @@
       <c r="F4">
         <v>1</v>
       </c>
+      <c r="H4" t="str">
+        <f t="shared" ref="H4:H5" si="0" xml:space="preserve"> IF(C4 = "Dimension",_xlfn.CONCAT("INSERT INTO etl.DwhMapping(LoadingProcedureName, DimensionTableID, FactTableID, Active,Layer) VALUES (N'",D4,"',(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'",B4,"' AND SchemaName = N'",A4,"')",", NULL,",E4, ",",F4, ")"),_xlfn.CONCAT("INSERT INTO etl.DwhMapping(LoadingProcedureName, FactTableID, DimensionTableID, Active,Layer) VALUES (N'",D4,"',(SELECT FactTableID FROM conf.FactTable WHERE TableName = N'",B4,"' AND SchemaName = N'",A4,"')",", NULL,",E4, ",",F4, ")"))</f>
+        <v>INSERT INTO etl.DwhMapping(LoadingProcedureName, DimensionTableID, FactTableID, Active,Layer) VALUES (N'dwh.p_Load_D_Employee',(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'Employee' AND SchemaName = N'dwh'), NULL,1,1)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" t="str">
+        <f>_xlfn.CONCAT(A5,".p_Load_",IF(C5="Dimension","D_","F_"),B5)</f>
+        <v>dwh.p_Load_D_Address</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO etl.DwhMapping(LoadingProcedureName, DimensionTableID, FactTableID, Active,Layer) VALUES (N'dwh.p_Load_D_Address',(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'Address' AND SchemaName = N'dwh'), NULL,1,1)</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1070,7 +1099,7 @@
           <x14:formula1>
             <xm:f>HiddenSheet!$C$6:$C$7</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C4</xm:sqref>
+          <xm:sqref>C2:C5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4365,7 +4394,7 @@
   </sheetPr>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -5464,12 +5493,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5638,15 +5664,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECF01738-4FB6-4420-ACD5-05F4ADA23550}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C35E53F-2B8C-4469-8C9B-1A3659EAE88B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5671,10 +5701,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C35E53F-2B8C-4469-8C9B-1A3659EAE88B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECF01738-4FB6-4420-ACD5-05F4ADA23550}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/AzureDWHFramework/AzureDWHFrameworkDataInput/DataInput.xlsx
+++ b/AzureDWHFramework/AzureDWHFrameworkDataInput/DataInput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\source\repos\AzureDWHframework\AzureDWHFramework\AzureDWHFrameworkDataInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475390E8-DF07-4831-B0A2-07955EEC2946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA99ADB2-0FA4-4DF0-99F8-9089C4F979D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Business Area" sheetId="15" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="114">
   <si>
     <t>SchemaName</t>
   </si>
@@ -950,16 +950,16 @@
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H2:H5"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="34.85546875" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
@@ -1061,7 +1061,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" ref="H4:H5" si="0" xml:space="preserve"> IF(C4 = "Dimension",_xlfn.CONCAT("INSERT INTO etl.DwhMapping(LoadingProcedureName, DimensionTableID, FactTableID, Active,Layer) VALUES (N'",D4,"',(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'",B4,"' AND SchemaName = N'",A4,"')",", NULL,",E4, ",",F4, ")"),_xlfn.CONCAT("INSERT INTO etl.DwhMapping(LoadingProcedureName, FactTableID, DimensionTableID, Active,Layer) VALUES (N'",D4,"',(SELECT FactTableID FROM conf.FactTable WHERE TableName = N'",B4,"' AND SchemaName = N'",A4,"')",", NULL,",E4, ",",F4, ")"))</f>
+        <f t="shared" ref="H4:H6" si="0" xml:space="preserve"> IF(C4 = "Dimension",_xlfn.CONCAT("INSERT INTO etl.DwhMapping(LoadingProcedureName, DimensionTableID, FactTableID, Active,Layer) VALUES (N'",D4,"',(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'",B4,"' AND SchemaName = N'",A4,"')",", NULL,",E4, ",",F4, ")"),_xlfn.CONCAT("INSERT INTO etl.DwhMapping(LoadingProcedureName, FactTableID, DimensionTableID, Active,Layer) VALUES (N'",D4,"',(SELECT FactTableID FROM conf.FactTable WHERE TableName = N'",B4,"' AND SchemaName = N'",A4,"')",", NULL,",E4, ",",F4, ")"))</f>
         <v>INSERT INTO etl.DwhMapping(LoadingProcedureName, DimensionTableID, FactTableID, Active,Layer) VALUES (N'dwh.p_Load_D_Employee',(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'Employee' AND SchemaName = N'dwh'), NULL,1,1)</v>
       </c>
     </row>
@@ -1088,6 +1088,31 @@
       <c r="H5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO etl.DwhMapping(LoadingProcedureName, DimensionTableID, FactTableID, Active,Layer) VALUES (N'dwh.p_Load_D_Address',(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'Address' AND SchemaName = N'dwh'), NULL,1,1)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" t="str">
+        <f>_xlfn.CONCAT(A6,".p_Load_",IF(C6="Dimension","D_","F_"),B6)</f>
+        <v>dwh.p_Load_F_PurchaseOrderHeader</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO etl.DwhMapping(LoadingProcedureName, FactTableID, DimensionTableID, Active,Layer) VALUES (N'dwh.p_Load_F_PurchaseOrderHeader',(SELECT FactTableID FROM conf.FactTable WHERE TableName = N'PurchaseOrderHeader' AND SchemaName = N'dwh'), NULL,1,1)</v>
       </c>
     </row>
   </sheetData>
@@ -1099,7 +1124,7 @@
           <x14:formula1>
             <xm:f>HiddenSheet!$C$6:$C$7</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C5</xm:sqref>
+          <xm:sqref>C2:C6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1145,8 +1170,8 @@
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4924,10 +4949,10 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF70AD47"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4992,6 +5017,27 @@
         <v>INSERT INTO conf.FactTable(SchemaName, TableName, LoadType,BusinessAreas,TabularModels, DeleteCondition, IncrementCondition, LoadWithIncrement) VALUES (N'dwh',N'SalesOrderHeader',N'Full',N'Sales',N'',N'',N'',N'0')</v>
       </c>
     </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("INSERT INTO conf.FactTable(SchemaName, TableName, LoadType,BusinessAreas,TabularModels, DeleteCondition, IncrementCondition, LoadWithIncrement) VALUES (N'",A3,"',N'",B3,"',N'",C3,"',N'",D3,"',N'",E3,"',N'",F3,"',N'",G3,"',N'",H3,"')")</f>
+        <v>INSERT INTO conf.FactTable(SchemaName, TableName, LoadType,BusinessAreas,TabularModels, DeleteCondition, IncrementCondition, LoadWithIncrement) VALUES (N'dwh',N'PurchaseOrderHeader',N'Full',N'Purchasing',N'',N'',N'',N'0')</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5003,11 +5049,11 @@
   <sheetPr codeName="Sheet9">
     <tabColor rgb="FF70AD47"/>
   </sheetPr>
-  <dimension ref="A1:O95"/>
+  <dimension ref="A1:O96"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="O14" sqref="O14:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5458,11 +5504,290 @@
         <v>INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID, MainRelationship) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'SalesOrderHeader' AND SchemaName = N'dwh'),N'Freight',N'money',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'Freight' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'SalesOrderHeader'),NULL,NULL)</v>
       </c>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C58" s="6"/>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C61" s="6"/>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="O12" t="str">
+        <f>IF(ISBLANK(G12),_xlfn.CONCAT("INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID, MainRelationship) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'",B12,"' AND SchemaName = N'",A12,"')",",N'",C12, "',N'",I12, "',",J12,",",K12,", (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'",F12,"' AND stgTable.SchemaName = N'",D12,"' AND stgTable.TableName = N'",E12,"'),","NULL,","NULL)"),_xlfn.CONCAT("INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID, MainRelationship) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'",B12,"' AND SchemaName = N'",A12,"')",",N'",C12, "',N'",I12, "',",J12,",",K12,", (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'",F12,"' AND stgTable.SchemaName = N'",D12,"' AND stgTable.TableName = N'",E12,"'),","(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'",H12,"' AND SchemaName = N'",G12,"'),",J12,")"))</f>
+        <v>INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID, MainRelationship) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'PurchaseOrderHeader' AND SchemaName = N'dwh'),N'SalesOrderID',N'int',0,1, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'PurchaseOrderID' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'PurchaseOrderHeader'),NULL,NULL)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" ref="O13:O19" si="1">IF(ISBLANK(G13),_xlfn.CONCAT("INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID, MainRelationship) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'",B13,"' AND SchemaName = N'",A13,"')",",N'",C13, "',N'",I13, "',",J13,",",K13,", (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'",F13,"' AND stgTable.SchemaName = N'",D13,"' AND stgTable.TableName = N'",E13,"'),","NULL,","NULL)"),_xlfn.CONCAT("INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID, MainRelationship) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'",B13,"' AND SchemaName = N'",A13,"')",",N'",C13, "',N'",I13, "',",J13,",",K13,", (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'",F13,"' AND stgTable.SchemaName = N'",D13,"' AND stgTable.TableName = N'",E13,"'),","(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'",H13,"' AND SchemaName = N'",G13,"'),",J13,")"))</f>
+        <v>INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID, MainRelationship) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'PurchaseOrderHeader' AND SchemaName = N'dwh'),N'SalesPersonID',N'int',1,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'EmployeeID' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'PurchaseOrderHeader'),(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'Employee' AND SchemaName = N'dwh'),1)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID, MainRelationship) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'PurchaseOrderHeader' AND SchemaName = N'dwh'),N'ShipDateID',N'int',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'ShipDate' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'PurchaseOrderHeader'),(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'Date' AND SchemaName = N'dwh'),0)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID, MainRelationship) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'PurchaseOrderHeader' AND SchemaName = N'dwh'),N'OrderDateID',N'int',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'OrderDate' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'PurchaseOrderHeader'),(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'Date' AND SchemaName = N'dwh'),0)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID, MainRelationship) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'PurchaseOrderHeader' AND SchemaName = N'dwh'),N'SubTotal',N'money',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'SubTotal' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'PurchaseOrderHeader'),NULL,NULL)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID, MainRelationship) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'PurchaseOrderHeader' AND SchemaName = N'dwh'),N'TaxAmt',N'money',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'TaxAmt' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'PurchaseOrderHeader'),NULL,NULL)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID, MainRelationship) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'PurchaseOrderHeader' AND SchemaName = N'dwh'),N'Freight',N'money',0,0, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'Freight' AND stgTable.SchemaName = N'stage_onpremisedb' AND stgTable.TableName = N'PurchaseOrderHeader'),NULL,NULL)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O19" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID, MainRelationship) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'' AND SchemaName = N''),N'',N'',,, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'' AND stgTable.SchemaName = N'' AND stgTable.TableName = N''),NULL,NULL)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O20" t="str">
+        <f>IF(ISBLANK(G20),_xlfn.CONCAT("INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID, MainRelationship) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'",B20,"' AND SchemaName = N'",A20,"')",",N'",C20, "',N'",I20, "',",J20,",",K20,", (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'",F20,"' AND stgTable.SchemaName = N'",D20,"' AND stgTable.TableName = N'",E20,"'),","NULL,","NULL)"),_xlfn.CONCAT("INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID, MainRelationship) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'",B20,"' AND SchemaName = N'",A20,"')",",N'",C20, "',N'",I20, "',",J20,",",K20,", (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'",F20,"' AND stgTable.SchemaName = N'",D20,"' AND stgTable.TableName = N'",E20,"'),","(SELECT DimensionTableID FROM conf.DimensionTable WHERE TableName = N'",H20,"' AND SchemaName = N'",G20,"'),",J20,")"))</f>
+        <v>INSERT INTO conf.FactTableColumn(FactTableID, ColumnName, DataType, Nullable, BusinessKey, StageTableColumnID, DimensionTableID, MainRelationship) VALUES ( (SELECT FactTableID FROM conf.FactTable WHERE TableName = N'' AND SchemaName = N''),N'',N'',,, (SELECT stgColumn.StageTableColumnID FROM conf.StageTable stgTable INNER JOIN conf.StageTableColumn stgColumn ON stgColumn.StageTableID = stgTable.StageTableID WHERE stgColumn.ColumnName = N'' AND stgTable.SchemaName = N'' AND stgTable.TableName = N''),NULL,NULL)</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59" s="6"/>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" s="6"/>
@@ -5470,8 +5795,8 @@
     <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" s="6"/>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C91" s="7"/>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="6"/>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="7"/>
@@ -5484,6 +5809,9 @@
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="7"/>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C96" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5493,9 +5821,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5664,19 +5995,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C35E53F-2B8C-4469-8C9B-1A3659EAE88B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECF01738-4FB6-4420-ACD5-05F4ADA23550}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5701,9 +6028,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECF01738-4FB6-4420-ACD5-05F4ADA23550}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C35E53F-2B8C-4469-8C9B-1A3659EAE88B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>